--- a/data/housesAnalysis-20240415.xlsx
+++ b/data/housesAnalysis-20240415.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban25/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938565AF-1870-E943-A559-22A3531B6DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9F2D40-C33D-8549-A3E2-7DA2062F378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-360" yWindow="-26900" windowWidth="25300" windowHeight="16100" xr2:uid="{33D194D6-A429-7949-A97B-0894189945E2}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="10" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2763" uniqueCount="1509">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6014,7 +6014,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6079,9 +6079,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -6104,7 +6101,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45397.597551851853" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="78" xr:uid="{7D86589C-DEF3-D045-A032-EF8D5ACAC920}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45402.00967013889" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="77" xr:uid="{7D86589C-DEF3-D045-A032-EF8D5ACAC920}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:CH1048576" sheet="工作表1"/>
   </cacheSource>
@@ -6116,7 +6113,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="514"/>
     </cacheField>
     <cacheField name="區域" numFmtId="49">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsNonDate="0" containsBlank="1" count="6">
         <s v="3.中心商業區"/>
         <s v="5.體育大學生活圈"/>
         <s v="1.樂善國小生活圈"/>
@@ -6126,100 +6123,22 @@
       </sharedItems>
     </cacheField>
     <cacheField name="建案" numFmtId="0">
-      <sharedItems containsBlank="1" count="77">
-        <s v="富宇悅峰"/>
-        <s v="合遠新天地"/>
-        <s v="友文化"/>
-        <s v="文華天際"/>
-        <s v="新未來1"/>
-        <s v="富宇天匯"/>
-        <s v="竹城明治"/>
-        <s v="竹城宇治"/>
-        <s v="櫻花澍"/>
-        <s v="和煦隆陞"/>
-        <s v="遠雄文青"/>
-        <s v="皇翔歡喜城"/>
-        <s v="名軒快樂家"/>
-        <s v="麗寶快樂家"/>
-        <s v="豐邑氧森"/>
-        <s v="合展家禾"/>
-        <s v="鴻廣絵青"/>
-        <s v="富宇天玥"/>
-        <s v="豐邑Green iN"/>
-        <s v="和發大境"/>
-        <s v="樂捷市"/>
-        <s v="奇幻莊園"/>
-        <s v="樂田田"/>
-        <s v="玉子園"/>
-        <s v="台北國際村"/>
-        <s v="大華旭"/>
-        <s v="鴻築玥"/>
-        <s v="富宇上城"/>
-        <s v="禾悅花園"/>
-        <s v="允將大作"/>
-        <s v="鴻築捷市達"/>
-        <s v="富來舞綻"/>
-        <s v="君邑羅浮"/>
-        <s v="興富發鉑悅"/>
-        <s v="富堡菁英匯"/>
-        <s v="大華昇耕"/>
-        <s v="竹城中州"/>
-        <s v="智匯學"/>
-        <s v="富宇哈佛苑"/>
-        <s v="和境心見"/>
-        <s v="丹佛花都"/>
-        <s v="維特魯威"/>
-        <s v="頤昌筑岳"/>
-        <s v="允將大聚"/>
-        <s v="鴻典"/>
-        <s v="富宇敦峰"/>
-        <s v="耀台北"/>
-        <s v="皇普MVP"/>
-        <s v="玄泰V1"/>
-        <s v="和耀恆美"/>
-        <s v="頤昌璞岳"/>
-        <s v="竹城甲子園"/>
-        <s v="欣時代"/>
-        <s v="新潤翡麗"/>
-        <s v="新潤鉑麗"/>
-        <s v="根津苑"/>
-        <s v="華悅城"/>
-        <s v="水悅青青"/>
-        <s v="大亮時代A7"/>
-        <s v="大亮 泊"/>
-        <s v="大亮波波"/>
-        <s v="金捷市"/>
-        <s v="詠勝市中欣"/>
-        <s v="新A7"/>
-        <s v="富御捷境"/>
-        <s v="頤昌豐岳"/>
-        <s v="新未來2"/>
-        <s v="遠雄新未來3"/>
-        <s v="和洲金剛"/>
-        <s v="君邑丘比特"/>
-        <s v="合謙學"/>
-        <s v="頤昌澄岳"/>
-        <s v="玄泰T1"/>
-        <s v="平均單價"/>
-        <s v="平均總價"/>
-        <s v="成交量"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Figure" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="FigureURL" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1" longText="1"/>
     </cacheField>
     <cacheField name="Link591" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="LinkLG" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="LinkAddress" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1" longText="1"/>
     </cacheField>
     <cacheField name="一年成交均價" numFmtId="177">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="21.3" maxValue="45.34"/>
@@ -6237,7 +6156,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.84" maxValue="42.11"/>
     </cacheField>
     <cacheField name="每坪開價2020" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="2020每坪開價-最低" numFmtId="178">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="15" maxValue="39"/>
@@ -6252,7 +6171,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="2.5"/>
     </cacheField>
     <cacheField name="每坪開價" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="開價最低" numFmtId="178">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="15" maxValue="52"/>
@@ -6267,19 +6186,19 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="54"/>
     </cacheField>
     <cacheField name="比價" numFmtId="178">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="FacebookName" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="FacebookLink" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="LineID" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="車位價格" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="車位價格-最低" numFmtId="179">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="115" maxValue="200"/>
@@ -6291,129 +6210,64 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0.75" maxValue="0.8"/>
     </cacheField>
     <cacheField name="公開銷售" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="交屋時間" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="交屋年份" numFmtId="176">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2016" maxValue="2028"/>
     </cacheField>
     <cacheField name="交屋時程" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="格局規劃" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Category2" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="建物形態" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="基地地址" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="接待會館" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="投資建設F" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="投資建設" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="建設公司" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="營造公司" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="企劃銷售" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="建築設計" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="建造執照" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="公設比例" numFmtId="10">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.315" maxValue="0.36799999999999999"/>
     </cacheField>
     <cacheField name="棟戶規劃" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="住家戶數" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="22" maxValue="1780" count="64">
-        <n v="264"/>
-        <n v="112"/>
-        <n v="305"/>
-        <n v="478"/>
-        <n v="807"/>
-        <n v="266"/>
-        <n v="168"/>
-        <n v="103"/>
-        <n v="106"/>
-        <n v="22"/>
-        <n v="1272"/>
-        <n v="1780"/>
-        <n v="514"/>
-        <n v="897"/>
-        <n v="320"/>
-        <n v="292"/>
-        <n v="224"/>
-        <n v="120"/>
-        <n v="150"/>
-        <n v="280"/>
-        <n v="326"/>
-        <n v="173"/>
-        <n v="187"/>
-        <n v="186"/>
-        <n v="198"/>
-        <n v="182"/>
-        <n v="196"/>
-        <n v="832"/>
-        <n v="1044"/>
-        <n v="530"/>
-        <n v="771"/>
-        <n v="185"/>
-        <n v="1016"/>
-        <n v="135"/>
-        <n v="202"/>
-        <n v="141"/>
-        <n v="483"/>
-        <n v="210"/>
-        <n v="532"/>
-        <n v="123"/>
-        <n v="138"/>
-        <n v="378"/>
-        <n v="441"/>
-        <n v="199"/>
-        <n v="308"/>
-        <n v="124"/>
-        <n v="1144"/>
-        <n v="235"/>
-        <n v="420"/>
-        <n v="225"/>
-        <n v="776"/>
-        <n v="204"/>
-        <n v="87"/>
-        <n v="568"/>
-        <n v="192"/>
-        <n v="754"/>
-        <n v="257"/>
-        <n v="371"/>
-        <n v="337"/>
-        <n v="154"/>
-        <n v="376"/>
-        <n v="582"/>
-        <n v="140"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="22" maxValue="1780"/>
     </cacheField>
     <cacheField name="商店戶數" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="33"/>
@@ -6425,43 +6279,43 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.2492" maxValue="0.69320000000000004"/>
     </cacheField>
     <cacheField name="樓層規劃" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="樓層數" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="8" maxValue="35"/>
     </cacheField>
     <cacheField name="車位規劃" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="管理費用" numFmtId="0">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="50" maxValue="85"/>
     </cacheField>
     <cacheField name="車位配比" numFmtId="49">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="車位分配率" numFmtId="177">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.36" maxValue="1.61"/>
     </cacheField>
     <cacheField name="結構工程" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="基地面積" numFmtId="40">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="332.5" maxValue="4720.8900000000003"/>
     </cacheField>
     <cacheField name="用途規劃" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="土地分區" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="物業公司" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="管委會" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="行政里" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsNonDate="0" containsBlank="1" count="5">
         <s v="文化里"/>
         <s v="文青里"/>
         <s v="長庚里"/>
@@ -6470,13 +6324,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="選擇" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="選擇2" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="選擇3" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="實價登錄數23Q1" numFmtId="180">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="128"/>
@@ -6509,7 +6363,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="35.299999999999997" maxValue="1430"/>
     </cacheField>
     <cacheField name="地號" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="戶數" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="103" maxValue="1255"/>
@@ -6533,12 +6387,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="78">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="77">
   <r>
     <n v="521"/>
     <n v="307"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="富宇悅峰"/>
     <s v="AiCity-939-富宇悅峰.jpg"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=119483&amp;v=720"/>
@@ -6586,7 +6440,7 @@
     <s v="(108)桃市都建執照字第會龜00334號等1個"/>
     <n v="0.36799999999999999"/>
     <s v="5棟，264戶住家"/>
-    <x v="0"/>
+    <n v="264"/>
     <n v="0"/>
     <m/>
     <n v="0.40210000000000001"/>
@@ -6626,7 +6480,7 @@
     <n v="522"/>
     <n v="308"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="合遠新天地"/>
     <s v="AiCity-939-合遠新天地.jpeg"/>
     <m/>
     <m/>
@@ -6674,7 +6528,7 @@
     <s v="(106)桃市都建執照字第會龜01161-01號等1個"/>
     <n v="0.315"/>
     <s v="2棟，112戶住家，4戶店面"/>
-    <x v="1"/>
+    <n v="112"/>
     <n v="4"/>
     <m/>
     <n v="0.3397"/>
@@ -6714,7 +6568,7 @@
     <n v="523"/>
     <n v="309"/>
     <x v="0"/>
-    <x v="2"/>
+    <s v="友文化"/>
     <s v="AiCity-939-友文化.jpg"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/info?hid=121155"/>
@@ -6762,7 +6616,7 @@
     <s v="(108)桃市都建執照字第會龜00050號"/>
     <n v="0.32"/>
     <s v="3幢，7棟，305戶住家"/>
-    <x v="2"/>
+    <n v="305"/>
     <n v="0"/>
     <m/>
     <n v="0.44209999999999999"/>
@@ -6802,7 +6656,7 @@
     <n v="525"/>
     <n v="311"/>
     <x v="0"/>
-    <x v="3"/>
+    <s v="文華天際"/>
     <s v="AiCity-939-文華天際.png"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=127139"/>
@@ -6850,7 +6704,7 @@
     <s v="109桃市都建執照字第00376-01號"/>
     <n v="0.33"/>
     <s v="1幢，2棟，478戶住家，8戶店面"/>
-    <x v="3"/>
+    <n v="478"/>
     <n v="8"/>
     <m/>
     <n v="0.3347"/>
@@ -6890,7 +6744,7 @@
     <n v="542"/>
     <n v="501"/>
     <x v="1"/>
-    <x v="4"/>
+    <s v="新未來1"/>
     <s v="AiCity-939-新未來1.jpg"/>
     <s v="https://www.instagram.com/p/CyFyrn9x1GD/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=113056"/>
@@ -6938,7 +6792,7 @@
     <s v="(106)桃市都建執照字第會龜00035號"/>
     <n v="0.33"/>
     <s v="3棟，807戶住家，14戶店面，3個商場"/>
-    <x v="4"/>
+    <n v="807"/>
     <n v="14"/>
     <m/>
     <n v="0.57020000000000004"/>
@@ -6978,7 +6832,7 @@
     <n v="543"/>
     <n v="502"/>
     <x v="1"/>
-    <x v="5"/>
+    <s v="富宇天匯"/>
     <s v="AiCity-939-富宇天匯.jpg"/>
     <s v="https://www.instagram.com/p/CxlCVkvxcJd/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=121159&amp;v=720"/>
@@ -7026,7 +6880,7 @@
     <s v="108桃市都建執照字第01027號"/>
     <n v="0.33500000000000002"/>
     <s v="2幢，4棟，266戶住家，4戶店面"/>
-    <x v="5"/>
+    <n v="266"/>
     <n v="4"/>
     <m/>
     <n v="0.49540000000000001"/>
@@ -7066,7 +6920,7 @@
     <n v="544"/>
     <n v="503"/>
     <x v="1"/>
-    <x v="6"/>
+    <s v="竹城明治"/>
     <s v="AiCity-939-竹城明治.jpg"/>
     <s v="https://www.instagram.com/p/CxlCkK-xI5j/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=120762"/>
@@ -7114,7 +6968,7 @@
     <s v="(107)桃市都建執照字第會龜00995-01號等1個"/>
     <n v="0.32"/>
     <s v="1幢，6棟，168戶住家，5戶店面"/>
-    <x v="6"/>
+    <n v="168"/>
     <n v="5"/>
     <m/>
     <n v="0.4556"/>
@@ -7154,7 +7008,7 @@
     <n v="545"/>
     <n v="504"/>
     <x v="1"/>
-    <x v="7"/>
+    <s v="竹城宇治"/>
     <s v="AiCity-939-竹城宇治.jpg"/>
     <s v="https://www.instagram.com/p/CyFx_Dqx5Cb/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=115863"/>
@@ -7202,7 +7056,7 @@
     <s v="(106)桃市都建執照字第會龜01145 號等2個"/>
     <n v="0.315"/>
     <s v="3棟，103戶住家，6戶店面"/>
-    <x v="7"/>
+    <n v="103"/>
     <n v="6"/>
     <m/>
     <n v="0.45700000000000002"/>
@@ -7242,7 +7096,7 @@
     <n v="546"/>
     <n v="505"/>
     <x v="1"/>
-    <x v="8"/>
+    <s v="櫻花澍"/>
     <s v="AiCity-939-櫻花澍.webp"/>
     <s v="https://www.instagram.com/p/Cwl5Zn0xvj9/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=124447"/>
@@ -7290,7 +7144,7 @@
     <s v="108桃市都建執照字第00713-01號"/>
     <n v="0.32"/>
     <s v="1幢，2棟，106戶住家，2戶店面"/>
-    <x v="8"/>
+    <n v="106"/>
     <n v="2"/>
     <m/>
     <n v="0.38140000000000002"/>
@@ -7330,7 +7184,7 @@
     <n v="547"/>
     <n v="506"/>
     <x v="1"/>
-    <x v="9"/>
+    <s v="和煦隆陞"/>
     <s v="AiCity-939-和煦隆陞.jpg"/>
     <m/>
     <s v="https://market.591.com.tw/104829"/>
@@ -7378,7 +7232,7 @@
     <m/>
     <n v="0.32700000000000001"/>
     <s v="1幢，3棟，18戶住家，1戶店面"/>
-    <x v="9"/>
+    <n v="22"/>
     <m/>
     <m/>
     <n v="0.5897"/>
@@ -7418,7 +7272,7 @@
     <n v="548"/>
     <n v="511"/>
     <x v="1"/>
-    <x v="10"/>
+    <s v="遠雄文青"/>
     <s v="AiCity-939-遠雄文青.png"/>
     <s v="https://www.instagram.com/p/CyFy7cQRQeF/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://www.farglory-land.com.tw/leasehold/%E9%81%A0%E9%9B%84%E6%99%82%E4%BB%A3%E7%B8%BD%E9%83%A8-2/"/>
@@ -7466,7 +7320,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="10"/>
+    <n v="1272"/>
     <m/>
     <m/>
     <m/>
@@ -7506,7 +7360,7 @@
     <n v="549"/>
     <n v="512"/>
     <x v="1"/>
-    <x v="11"/>
+    <s v="皇翔歡喜城"/>
     <s v="AiCity-939-皇翔歡喜城.jpg"/>
     <s v="https://www.instagram.com/p/CyFyi5NRTgV/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://www.uppercity.tw/"/>
@@ -7554,7 +7408,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="11"/>
+    <n v="1780"/>
     <m/>
     <m/>
     <m/>
@@ -7594,7 +7448,7 @@
     <n v="550"/>
     <n v="513"/>
     <x v="1"/>
-    <x v="12"/>
+    <s v="名軒快樂家"/>
     <s v="AiCity-939-名軒快樂家.jpg"/>
     <m/>
     <s v="https://www.advancetek.com.tw/%E7%86%B1%E9%8A%B7%E5%80%8B%E6%A1%88/%E5%90%8D%E8%BB%92%E5%BF%AB%E6%A8%82%E5%AE%B6%E5%90%88%E5%AE%9C%E4%BD%8F%E5%AE%85a7_c%E5%9F%BA%E5%9C%B0/"/>
@@ -7642,7 +7496,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="12"/>
+    <n v="514"/>
     <m/>
     <m/>
     <m/>
@@ -7682,7 +7536,7 @@
     <n v="551"/>
     <n v="514"/>
     <x v="1"/>
-    <x v="13"/>
+    <s v="麗寶快樂家"/>
     <s v="AiCity-939-麗寶快樂家.jpg"/>
     <s v="https://www.instagram.com/p/CyFyO6fxSTS/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="http://lihpao.com.tw/appropriate/build.html"/>
@@ -7730,7 +7584,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="13"/>
+    <n v="897"/>
     <m/>
     <m/>
     <m/>
@@ -7770,7 +7624,7 @@
     <n v="501"/>
     <n v="108"/>
     <x v="2"/>
-    <x v="14"/>
+    <s v="豐邑氧森"/>
     <s v="AiCity-939-豐邑氧森.jpg"/>
     <s v="https://build.myhousing.com.tw/images/buildings/%E6%A1%83%E5%9C%92%E5%B8%82/%E9%BE%9C%E3%80%80%E5%B1%B1/1110420-%E8%B1%90%E9%82%91%E6%B0%A7%E6%A3%AE/%E9%80%8F%E8%A6%96%E5%9C%96%E5%A4%96%E8%A7%80@%E5%A4%96%E8%A7%80%E5%9C%96.jpg"/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=129338"/>
@@ -7818,7 +7672,7 @@
     <s v="108桃市都建執照字第01289號"/>
     <n v="0.33110000000000001"/>
     <s v="1幢，8棟，320戶住家，8戶店面"/>
-    <x v="14"/>
+    <n v="320"/>
     <n v="8"/>
     <m/>
     <n v="0.2928"/>
@@ -7858,7 +7712,7 @@
     <n v="212"/>
     <n v="109"/>
     <x v="2"/>
-    <x v="15"/>
+    <s v="合展家禾"/>
     <s v="AiCity-939-合展家禾.webp"/>
     <s v="https://www.instagram.com/p/C5U7yRPRSjd/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/131874?click_link=1&amp;roster_type=1"/>
@@ -7906,7 +7760,7 @@
     <s v="(110)桃市都建執照字第會龜00630號"/>
     <n v="0.33110000000000001"/>
     <s v="1幢，5棟，292戶住家，19戶店面"/>
-    <x v="15"/>
+    <n v="292"/>
     <n v="19"/>
     <m/>
     <n v="0.48620000000000002"/>
@@ -7946,7 +7800,7 @@
     <n v="211"/>
     <n v="110"/>
     <x v="2"/>
-    <x v="16"/>
+    <s v="鴻廣絵青"/>
     <s v="AiCity-939-鴻廣繪青.webp"/>
     <s v="https://www.instagram.com/p/C5Cq55Nx5yD/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/130667?v=720"/>
@@ -7994,7 +7848,7 @@
     <s v="(110)桃市都建執照字第會龜00582-01號"/>
     <n v="0.33500000000000002"/>
     <s v="_x000a_2幢，4棟，224戶住家，8戶店面"/>
-    <x v="16"/>
+    <n v="224"/>
     <n v="8"/>
     <m/>
     <n v="0.42209999999999998"/>
@@ -8034,7 +7888,7 @@
     <n v="220"/>
     <n v="113"/>
     <x v="2"/>
-    <x v="17"/>
+    <s v="富宇天玥"/>
     <s v="AiCity-939-鴻築玥.webp"/>
     <s v="https://img1.591.com.tw/house/2023/09/07/169405316775878302.jpg!660x495.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/134230?click_link=1&amp;roster_type=1"/>
@@ -8082,7 +7936,7 @@
     <s v="(108)桃市都建執照字第會龜00960號"/>
     <n v="0.34499999999999997"/>
     <s v="1幢，2棟，120戶住家，2戶店面"/>
-    <x v="17"/>
+    <n v="120"/>
     <n v="2"/>
     <m/>
     <n v="0.39639999999999997"/>
@@ -8122,7 +7976,7 @@
     <n v="222"/>
     <n v="115"/>
     <x v="2"/>
-    <x v="18"/>
+    <s v="豐邑Green iN"/>
     <s v="AiCity-939-豐邑GreeniN.webp"/>
     <s v="https://img2.591.com.tw/house/2024/02/02/170684246676421406.jpg!660x495.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/134612"/>
@@ -8170,7 +8024,7 @@
     <s v="(109)桃市都建執照字第會龜00412號(改照中)"/>
     <n v="0.34460000000000002"/>
     <s v="1幢，1棟，150戶住家"/>
-    <x v="18"/>
+    <n v="150"/>
     <n v="0"/>
     <m/>
     <n v="0.2492"/>
@@ -8210,7 +8064,7 @@
     <n v="502"/>
     <n v="101"/>
     <x v="2"/>
-    <x v="19"/>
+    <s v="和發大境"/>
     <s v="AiCity-939-和發大境.jpg"/>
     <s v="https://www.instagram.com/p/Co3L4HhPNwd/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=125726"/>
@@ -8258,7 +8112,7 @@
     <s v="108桃市都建執照字第00546-01號"/>
     <n v="0.33"/>
     <s v="3幢，8棟，280戶住家，12戶店面"/>
-    <x v="19"/>
+    <n v="280"/>
     <n v="12"/>
     <m/>
     <n v="0.40899999999999997"/>
@@ -8298,7 +8152,7 @@
     <n v="504"/>
     <n v="103"/>
     <x v="2"/>
-    <x v="20"/>
+    <s v="樂捷市"/>
     <s v="AiCity-939-樂捷市.jpeg"/>
     <s v="https://www.instagram.com/p/CyFzxpExqRV/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=116751&amp;v=720"/>
@@ -8346,7 +8200,7 @@
     <s v="（106)桃市都建執照字第00372號等1個"/>
     <n v="0.315"/>
     <s v="1幢，8棟，326戶住家，20戶店面"/>
-    <x v="20"/>
+    <n v="326"/>
     <n v="20"/>
     <m/>
     <n v="0.49559999999999998"/>
@@ -8386,7 +8240,7 @@
     <n v="505"/>
     <n v="104"/>
     <x v="2"/>
-    <x v="21"/>
+    <s v="奇幻莊園"/>
     <s v="AiCity-939-奇幻莊園.jpg"/>
     <s v="https://www.instagram.com/p/CyFzh35xIb6/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=116476&amp;v=720"/>
@@ -8434,7 +8288,7 @@
     <s v="106桃市都建執照字第01160-01號"/>
     <n v="0.32"/>
     <s v="1幢，3棟，173戶住家，11戶店面"/>
-    <x v="21"/>
+    <n v="173"/>
     <n v="11"/>
     <m/>
     <n v="0.48259999999999997"/>
@@ -8474,7 +8328,7 @@
     <n v="506"/>
     <n v="105"/>
     <x v="2"/>
-    <x v="22"/>
+    <s v="樂田田"/>
     <s v="AiCity-939-樂甜甜.jpg"/>
     <s v="https://www.instagram.com/p/CzdlsqbLU3F/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=121200&amp;v=720"/>
@@ -8522,7 +8376,7 @@
     <s v="108桃市都建執照字第00290-01號"/>
     <n v="0.32600000000000001"/>
     <s v="2幢，4棟，187戶住家，12戶店面"/>
-    <x v="22"/>
+    <n v="187"/>
     <n v="12"/>
     <m/>
     <n v="0.44269999999999998"/>
@@ -8562,7 +8416,7 @@
     <n v="507"/>
     <n v="106"/>
     <x v="2"/>
-    <x v="23"/>
+    <s v="玉子園"/>
     <s v="AiCity-939-玉子園.jpg"/>
     <s v="https://www.instagram.com/p/Co4VgkcveC_/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=119531&amp;v=720"/>
@@ -8610,7 +8464,7 @@
     <s v="(106)桃市都建執照字第會龜00880-01號等1個"/>
     <n v="0.315"/>
     <s v="5棟，186戶住家，7戶店面"/>
-    <x v="23"/>
+    <n v="186"/>
     <n v="7"/>
     <m/>
     <n v="0.44230000000000003"/>
@@ -8650,7 +8504,7 @@
     <n v="508"/>
     <n v="107"/>
     <x v="2"/>
-    <x v="24"/>
+    <s v="台北國際村"/>
     <s v="AiCity-939-台北國際村.jpg"/>
     <s v="https://www.instagram.com/p/CyFzpWQRKvv/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=118714&amp;v=720"/>
@@ -8698,7 +8552,7 @@
     <s v="(107)桃市都建執照字第會龜01092-01號等1個"/>
     <n v="0.315"/>
     <s v="4棟，198戶住家，8戶店面"/>
-    <x v="24"/>
+    <n v="198"/>
     <n v="8"/>
     <m/>
     <n v="0.45669999999999999"/>
@@ -8738,7 +8592,7 @@
     <n v="208"/>
     <n v="112"/>
     <x v="2"/>
-    <x v="25"/>
+    <s v="大華旭"/>
     <s v="AiCity-939-大華旭.webp"/>
     <s v="https://www.instagram.com/p/CyF1RQqR_da/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/129970"/>
@@ -8786,7 +8640,7 @@
     <s v="(110)桃市都建執照字第會龜00268-02號"/>
     <n v="0.33800000000000002"/>
     <s v="1幢，3棟，182戶住家，8戶店面"/>
-    <x v="25"/>
+    <n v="182"/>
     <n v="8"/>
     <m/>
     <n v="0.46789999999999998"/>
@@ -8826,7 +8680,7 @@
     <n v="221"/>
     <n v="114"/>
     <x v="2"/>
-    <x v="26"/>
+    <s v="鴻築玥"/>
     <s v="AiCity-939-鴻築玥.webp"/>
     <s v="https://leju-outside.s3-ap-northeast-1.amazonaws.com/object_og_image/og_Le67139767b0a33.jpg"/>
     <s v="https://newhouse.591.com.tw/133709"/>
@@ -8874,7 +8728,7 @@
     <s v="(111)桃市都建執照字第會龜00956號"/>
     <n v="0.33500000000000002"/>
     <s v="1幢，2棟，196戶住家，3戶店面"/>
-    <x v="26"/>
+    <n v="196"/>
     <n v="3"/>
     <m/>
     <n v="0.57979999999999998"/>
@@ -8914,7 +8768,7 @@
     <n v="205"/>
     <n v="201"/>
     <x v="3"/>
-    <x v="27"/>
+    <s v="富宇上城"/>
     <s v="AiCity-939-富宇上城.jpg"/>
     <s v="https://www.instagram.com/p/CxugNZgxs22/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=121156&amp;v=720"/>
@@ -8962,7 +8816,7 @@
     <s v="(107)桃市都建執照字第會龜00519-01號等1個"/>
     <n v="0.33500000000000002"/>
     <s v="4幢，6棟，832戶住家"/>
-    <x v="27"/>
+    <n v="832"/>
     <n v="0"/>
     <m/>
     <n v="0.31069999999999998"/>
@@ -9002,7 +8856,7 @@
     <n v="204"/>
     <n v="202"/>
     <x v="3"/>
-    <x v="28"/>
+    <s v="禾悅花園"/>
     <s v="AiCity-939-禾悅花園.jpg"/>
     <s v="https://static.rakuya.com.tw/community_image/52964/64474a4f2146f.jpeg"/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=122734&amp;v=720"/>
@@ -9050,7 +8904,7 @@
     <s v="109桃市都建執照字第00083號等1個"/>
     <n v="0.33500000000000002"/>
     <s v="1幢，13棟，1044戶住家"/>
-    <x v="28"/>
+    <n v="1044"/>
     <n v="0"/>
     <m/>
     <n v="0.52939999999999998"/>
@@ -9090,7 +8944,7 @@
     <n v="201"/>
     <n v="301"/>
     <x v="0"/>
-    <x v="29"/>
+    <s v="允將大作"/>
     <s v="AiCity-939-允將大作.jpg"/>
     <s v="https://img1.591.com.tw/house/2022/01/17/164241186497905601.jpg!338x252.jpg"/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=124450"/>
@@ -9138,7 +8992,7 @@
     <s v="106桃市都建執照字第00391-01號"/>
     <n v="0.33800000000000002"/>
     <s v="1幢，7棟，530戶住家，5戶店面，20戶事務所，1戶管委會空間"/>
-    <x v="29"/>
+    <n v="530"/>
     <n v="5"/>
     <m/>
     <n v="0.45529999999999998"/>
@@ -9178,7 +9032,7 @@
     <n v="203"/>
     <n v="314"/>
     <x v="0"/>
-    <x v="30"/>
+    <s v="鴻築捷市達"/>
     <s v="AiCity-939-鴻築捷市達.jpg"/>
     <s v="https://tpl.housetube.tw/img/products/info/3/5/7/5/5/35755_1.jpg?1685607894"/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=122649&amp;v=720"/>
@@ -9226,7 +9080,7 @@
     <s v="108桃市都建執照字第00438-01號等1個"/>
     <n v="0.32"/>
     <s v="1幢，4棟，771戶住家，31戶店面，1戶商場"/>
-    <x v="30"/>
+    <n v="771"/>
     <n v="31"/>
     <m/>
     <n v="0.49530000000000002"/>
@@ -9266,7 +9120,7 @@
     <n v="214"/>
     <n v="315"/>
     <x v="0"/>
-    <x v="31"/>
+    <s v="富來舞綻"/>
     <s v="AiCity-939-富來舞綻.webp"/>
     <s v="https://img1.591.com.tw/house/2019/01/29/154872451844918409.jpg!338x252.jpg"/>
     <s v="https://newhouse.591.com.tw/132512?v=720"/>
@@ -9314,7 +9168,7 @@
     <s v="(110)桃市都建執照字第會龜01373號(改照中)"/>
     <n v="0.33500000000000002"/>
     <s v="1幢，2棟，112戶住家，7戶店面"/>
-    <x v="1"/>
+    <n v="112"/>
     <n v="7"/>
     <m/>
     <n v="0.45"/>
@@ -9354,7 +9208,7 @@
     <n v="207"/>
     <n v="316"/>
     <x v="0"/>
-    <x v="32"/>
+    <s v="君邑羅浮"/>
     <s v="AiCity-939-君邑羅浮.webp"/>
     <s v="https://build.myhousing.com.tw/wp-content/uploads/2023/08/333_%E5%90%9B%E9%82%91%E7%BE%85%E6%B5%AE_%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B11110603-%E5%90%9B%E9%82%91%E7%BE%85%E6%B5%AE%E9%80%8F%E8%A6%96%E5%9C%96%E5%A4%96%E8%A7%80@333%E5%90%9B%E9%82%91%E7%BE%85%E6%B5%AEAA-1.jpg?v=1690911569"/>
     <s v="https://newhouse.591.com.tw/130297"/>
@@ -9402,7 +9256,7 @@
     <s v="(107)桃市都建執照字第會龜00387-01號"/>
     <n v="0.33750000000000002"/>
     <s v="1幢，2棟，185戶住家，9戶店面，110戶事務所，16戶一般零售業"/>
-    <x v="31"/>
+    <n v="185"/>
     <n v="9"/>
     <m/>
     <n v="0.44490000000000002"/>
@@ -9442,7 +9296,7 @@
     <n v="209"/>
     <n v="317"/>
     <x v="0"/>
-    <x v="33"/>
+    <s v="興富發鉑悅"/>
     <s v="AiCity-939-興富發鉑悅.webp"/>
     <s v="https://img1.591.com.tw/house/2022/07/26/165882794162001503.jpg!660x495.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/130733?v=720"/>
@@ -9490,7 +9344,7 @@
     <s v="_x000a_(106)桃市都建執照字第會龜00910-01號"/>
     <n v="0.34200000000000003"/>
     <s v="_x000a_1幢，3棟，1016戶住家，33戶店面，66戶事務所"/>
-    <x v="32"/>
+    <n v="1016"/>
     <n v="33"/>
     <m/>
     <n v="0.69320000000000004"/>
@@ -9530,7 +9384,7 @@
     <n v="213"/>
     <n v="319"/>
     <x v="0"/>
-    <x v="34"/>
+    <s v="富堡菁英匯"/>
     <s v="AiCity-940-菁英匯.webp"/>
     <s v="https://img1.591.com.tw/house/2023/02/21/167694924644170305.jpg!660x495.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/132625?v=720"/>
@@ -9578,7 +9432,7 @@
     <s v="(111)桃市都建執照字第會龜01272號"/>
     <n v="0.34899999999999998"/>
     <s v="1幢，1棟，135戶住家，13戶店面，110戶事務所"/>
-    <x v="33"/>
+    <n v="135"/>
     <n v="13"/>
     <n v="110"/>
     <n v="0.5867"/>
@@ -9618,7 +9472,7 @@
     <n v="217"/>
     <n v="320"/>
     <x v="0"/>
-    <x v="35"/>
+    <s v="大華昇耕"/>
     <s v="AiCity-939-大華昇耕.webp"/>
     <s v="https://img1.591.com.tw/house/2023/08/09/169154285749058309.jpg!660x495.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/134257"/>
@@ -9666,7 +9520,7 @@
     <s v="(111)桃市都建執照字第會龜00496-01號"/>
     <n v="0.33800000000000002"/>
     <s v="1幢，2棟，202戶住家，5戶店面"/>
-    <x v="34"/>
+    <n v="202"/>
     <n v="5"/>
     <m/>
     <n v="0.52200000000000002"/>
@@ -9706,7 +9560,7 @@
     <n v="218"/>
     <n v="321"/>
     <x v="0"/>
-    <x v="36"/>
+    <s v="竹城中州"/>
     <s v="AiCity-939-中州.webp"/>
     <s v="https://img1.591.com.tw/house/2023/08/04/169111347243767000.jpg!660x495.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/133718"/>
@@ -9754,7 +9608,7 @@
     <s v="(110)桃市都建執照字第會龜01190-01號"/>
     <n v="0.33500000000000002"/>
     <s v="1幢，1棟，103戶住家"/>
-    <x v="7"/>
+    <n v="103"/>
     <n v="0"/>
     <m/>
     <n v="0.4849"/>
@@ -9794,7 +9648,7 @@
     <n v="210"/>
     <n v="403"/>
     <x v="4"/>
-    <x v="37"/>
+    <s v="智匯學"/>
     <s v="AiCity-939-智匯學.webp"/>
     <s v="https://img1.591.com.tw/house/2023/02/01/167522015694839508.jpg!900x.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/housing-list-999-0.html?keyword=%E6%99%BA%E5%8C%AF%E5%AD%B8"/>
@@ -9842,7 +9696,7 @@
     <s v="(109)桃市都建執照字第會龜00946-01號"/>
     <n v="0.33500000000000002"/>
     <s v="1幢，2棟，141戶住家，4戶店面"/>
-    <x v="35"/>
+    <n v="141"/>
     <n v="4"/>
     <m/>
     <n v="0.47249999999999998"/>
@@ -9882,7 +9736,7 @@
     <n v="206"/>
     <n v="407"/>
     <x v="4"/>
-    <x v="38"/>
+    <s v="富宇哈佛苑"/>
     <s v="AiCity-939-富宇哈佛苑.jpg"/>
     <s v="https://www.instagram.com/p/Cwl6kk_xeO9/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=121157&amp;v=720"/>
@@ -9930,7 +9784,7 @@
     <s v="108桃市都建執照字第00961號等1個"/>
     <n v="0.33500000000000002"/>
     <s v="1幢，3棟，483戶住家，8戶店面"/>
-    <x v="36"/>
+    <n v="483"/>
     <n v="8"/>
     <m/>
     <n v="0.44180000000000003"/>
@@ -9970,7 +9824,7 @@
     <n v="215"/>
     <n v="418"/>
     <x v="4"/>
-    <x v="39"/>
+    <s v="和境心見"/>
     <s v="AiCity-939-和境心見.webp"/>
     <s v="https://build.myhousing.com.tw/wp-content/uploads/2023/08/333_%E5%92%8C%E5%A2%83%E5%BF%83%E8%A6%8B_%E6%A1%83%E5%9C%92%E5%B8%82%E9%BE%9C%E5%B1%B11120429-%E5%92%8C%E5%A2%83%E5%BF%83%E8%A6%8B%E9%80%8F%E8%A6%96%E5%9C%96%E5%A4%96%E8%A7%80@333%E5%92%8C%E5%A2%83%E5%BF%83%E8%A6%8BAA-1.jpg?v=1690918084"/>
     <s v="https://newhouse.591.com.tw/132719"/>
@@ -10018,7 +9872,7 @@
     <s v="(110)桃市都建執照字第會龜01727-02號"/>
     <n v="0.33500000000000002"/>
     <s v="1幢，3棟，210戶住家，8戶店面"/>
-    <x v="37"/>
+    <n v="210"/>
     <n v="8"/>
     <m/>
     <n v="0.56889999999999996"/>
@@ -10058,7 +9912,7 @@
     <n v="216"/>
     <n v="419"/>
     <x v="4"/>
-    <x v="40"/>
+    <s v="丹佛花都"/>
     <s v="AiCity-939-丹佛花都.png"/>
     <s v="https://img1.591.com.tw/house/2023/06/09/168628090111949304.jpg!660x495.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/133288"/>
@@ -10106,7 +9960,7 @@
     <s v="_x000a_(112)桃市都建執照字第會龜00528號"/>
     <n v="0.34499999999999997"/>
     <s v="2幢，4棟，532戶住家，14戶店面"/>
-    <x v="38"/>
+    <n v="532"/>
     <n v="14"/>
     <m/>
     <n v="0.43380000000000002"/>
@@ -10146,7 +10000,7 @@
     <n v="202"/>
     <n v="420"/>
     <x v="4"/>
-    <x v="41"/>
+    <s v="維特魯威"/>
     <s v="AiCity-939-維特魯威.jpg"/>
     <s v="https://jun-yi.com.tw/uploads/20222181733311.jpg"/>
     <s v="https://newhouse.591.com.tw/128903"/>
@@ -10194,7 +10048,7 @@
     <s v="(106)桃市都建執照字第會龜01039-02號"/>
     <n v="0.33400000000000002"/>
     <s v="1幢，1棟，123戶住家，3戶店面，10戶一般事務所"/>
-    <x v="39"/>
+    <n v="123"/>
     <n v="3"/>
     <m/>
     <n v="0.37569999999999998"/>
@@ -10234,7 +10088,7 @@
     <n v="223"/>
     <n v="421"/>
     <x v="4"/>
-    <x v="42"/>
+    <s v="頤昌筑岳"/>
     <s v="AiCity-939-頤昌筑岳.webp"/>
     <s v="https://attach.mobile01.com/attach/202401/mobile01-3040cc4d3d76f0e96fcd2dd042441024.jpg"/>
     <s v="https://newhouse.591.com.tw/135351"/>
@@ -10282,7 +10136,7 @@
     <s v="(112)桃市都建執照字第會龜00733號"/>
     <n v="0.33500000000000002"/>
     <s v="1幢，2棟，138戶住家，4戶店面"/>
-    <x v="40"/>
+    <n v="138"/>
     <n v="4"/>
     <m/>
     <n v="0.45950000000000002"/>
@@ -10322,7 +10176,7 @@
     <n v="219"/>
     <n v="422"/>
     <x v="4"/>
-    <x v="43"/>
+    <s v="允將大聚"/>
     <s v="AiCity-939-允將大聚.webp"/>
     <s v="https://img1.591.com.tw/house/2023/11/22/170062333412818503.jpg!900x.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/133843"/>
@@ -10370,7 +10224,7 @@
     <s v="_x000a_(106)桃市都建執照字第會龜00135-02號"/>
     <n v="0.34499999999999997"/>
     <s v="1幢，6棟，378戶住家，5戶店面"/>
-    <x v="41"/>
+    <n v="378"/>
     <n v="5"/>
     <m/>
     <n v="0.39169999999999999"/>
@@ -10410,7 +10264,7 @@
     <n v="503"/>
     <n v="102"/>
     <x v="2"/>
-    <x v="44"/>
+    <s v="鴻典"/>
     <s v="AiCity-939-鴻典.jpg"/>
     <s v="https://www.instagram.com/p/Co84_e0v2cn/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=122584&amp;v=720"/>
@@ -10458,7 +10312,7 @@
     <s v="107桃市都建執照字第01412-01號等1個"/>
     <n v="0.32"/>
     <s v="1幢，2棟，196戶住家，11戶店面"/>
-    <x v="26"/>
+    <n v="196"/>
     <n v="11"/>
     <m/>
     <n v="0.39800000000000002"/>
@@ -10474,7 +10328,7 @@
     <s v="第四種住宅區"/>
     <s v="暫無"/>
     <s v="暫無"/>
-    <x v="3"/>
+    <x v="2"/>
     <s v="Y"/>
     <m/>
     <m/>
@@ -10498,7 +10352,7 @@
     <n v="509"/>
     <n v="111"/>
     <x v="2"/>
-    <x v="45"/>
+    <s v="富宇敦峰"/>
     <s v="AiCity-939-富宇敦峰.jpg"/>
     <s v="https://www.instagram.com/p/Co3MkZtPPXS/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=116430&amp;v=720"/>
@@ -10546,7 +10400,7 @@
     <s v="107桃市都建執照0680號等1個"/>
     <n v="0.33350000000000002"/>
     <s v="8棟，441戶住家，7戶店面"/>
-    <x v="42"/>
+    <n v="441"/>
     <n v="7"/>
     <m/>
     <n v="0.43919999999999998"/>
@@ -10586,7 +10440,7 @@
     <n v="510"/>
     <n v="203"/>
     <x v="3"/>
-    <x v="46"/>
+    <s v="耀台北"/>
     <s v="AiCity-939-耀台北.jpg"/>
     <s v="https://www.instagram.com/p/CMTeYHyHZiR/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=118336&amp;v=720"/>
@@ -10634,7 +10488,7 @@
     <s v="(107)桃市都建執照字第會龜00614號等1個"/>
     <n v="0.315"/>
     <s v="5棟，199戶住家，2戶店面"/>
-    <x v="43"/>
+    <n v="199"/>
     <n v="2"/>
     <m/>
     <n v="0.46139999999999998"/>
@@ -10674,7 +10528,7 @@
     <n v="511"/>
     <n v="204"/>
     <x v="3"/>
-    <x v="47"/>
+    <s v="皇普MVP"/>
     <s v="AiCity-939-皇普MVP.jpg"/>
     <s v="https://www.instagram.com/p/CyFzKU7RcvS/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=118186"/>
@@ -10722,7 +10576,7 @@
     <s v="(107)桃市都建執照字第會龜01075號"/>
     <n v="0.31859999999999999"/>
     <s v="6棟，308戶住家，13戶店面"/>
-    <x v="44"/>
+    <n v="308"/>
     <n v="13"/>
     <m/>
     <n v="0.47989999999999999"/>
@@ -10762,7 +10616,7 @@
     <n v="512"/>
     <n v="205"/>
     <x v="3"/>
-    <x v="48"/>
+    <s v="玄泰V1"/>
     <s v="AiCity-939-玄泰V1.jpg"/>
     <s v="https://www.instagram.com/p/Cwl6vaMxnJ8/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=120098&amp;v=720"/>
@@ -10810,7 +10664,7 @@
     <s v="(108)桃市都建執照字第會龜00216號等1個"/>
     <n v="0.31900000000000001"/>
     <s v="2棟，138戶住家，8戶店面，125戶一般事務所"/>
-    <x v="40"/>
+    <n v="138"/>
     <n v="8"/>
     <m/>
     <n v="0.60160000000000002"/>
@@ -10850,7 +10704,7 @@
     <n v="513"/>
     <n v="206"/>
     <x v="3"/>
-    <x v="49"/>
+    <s v="和耀恆美"/>
     <s v="AiCity-939-和耀恆美.jpeg"/>
     <s v="https://www.instagram.com/p/Cxuf2bqRjHf/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=122650&amp;v=720"/>
@@ -10898,7 +10752,7 @@
     <s v="107桃市都建執照字第00925-01號"/>
     <n v="0.32250000000000001"/>
     <s v="1幢，7棟，280戶住家，11戶店面"/>
-    <x v="19"/>
+    <n v="280"/>
     <n v="11"/>
     <m/>
     <n v="0.4743"/>
@@ -10938,7 +10792,7 @@
     <n v="514"/>
     <n v="207"/>
     <x v="3"/>
-    <x v="50"/>
+    <s v="頤昌璞岳"/>
     <s v="AiCity-939-頤昌璞岳.jpeg"/>
     <s v="https://www.instagram.com/p/Co3M75wP_GM/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=124978"/>
@@ -10986,7 +10840,7 @@
     <s v="109桃市都建執照字第00379-01號"/>
     <n v="0.32100000000000001"/>
     <s v="1幢，2棟，124戶住家，11戶店面"/>
-    <x v="45"/>
+    <n v="124"/>
     <n v="11"/>
     <m/>
     <n v="0.51349999999999996"/>
@@ -11026,7 +10880,7 @@
     <n v="515"/>
     <n v="301"/>
     <x v="0"/>
-    <x v="51"/>
+    <s v="竹城甲子園"/>
     <s v="AiCity-939-竹城甲子園.jpg"/>
     <s v="https://www.instagram.com/p/CxlC0whRWWX/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=119261&amp;v=720"/>
@@ -11074,7 +10928,7 @@
     <s v="(106)桃市都建執照字第會龜01249-02號等1個"/>
     <n v="0.32500000000000001"/>
     <s v="8棟，1144戶住家，30戶店面，33戶一般事務所，2戶商場"/>
-    <x v="46"/>
+    <n v="1144"/>
     <n v="30"/>
     <m/>
     <n v="0.50209999999999999"/>
@@ -11114,7 +10968,7 @@
     <n v="516"/>
     <n v="302"/>
     <x v="0"/>
-    <x v="52"/>
+    <s v="欣時代"/>
     <s v="AiCity-939-欣時代.jpg"/>
     <s v="https://www.instagram.com/p/CxufAdwxGnC/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=118905"/>
@@ -11162,7 +11016,7 @@
     <s v="(106)桃市都建執照字第會龜00288-02號等1個"/>
     <n v="0.33500000000000002"/>
     <s v="5棟，235戶住家，4戶店面，19戶一般事務所"/>
-    <x v="47"/>
+    <n v="235"/>
     <n v="4"/>
     <m/>
     <n v="0.57489999999999997"/>
@@ -11202,7 +11056,7 @@
     <n v="517"/>
     <n v="303"/>
     <x v="0"/>
-    <x v="53"/>
+    <s v="新潤翡麗"/>
     <s v="AiCity-939-新潤翡麗.jpg"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=117434&amp;v=720"/>
@@ -11250,7 +11104,7 @@
     <s v="(106)桃市都建執照字第會龜00984-01號等1個"/>
     <n v="0.33750000000000002"/>
     <s v="1幢，2棟，420戶住家，20戶店面，11戶一般事務所"/>
-    <x v="48"/>
+    <n v="420"/>
     <n v="20"/>
     <m/>
     <n v="0.6502"/>
@@ -11290,7 +11144,7 @@
     <n v="518"/>
     <n v="304"/>
     <x v="0"/>
-    <x v="54"/>
+    <s v="新潤鉑麗"/>
     <s v="AiCity-939-新潤鉑麗.jpg"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=119614"/>
@@ -11338,7 +11192,7 @@
     <s v="107桃市都建執照字第龜01089-01號"/>
     <n v="0.33500000000000002"/>
     <s v="2幢，3棟，266戶住家，13戶店面"/>
-    <x v="5"/>
+    <n v="266"/>
     <n v="13"/>
     <m/>
     <n v="0.59850000000000003"/>
@@ -11378,7 +11232,7 @@
     <n v="519"/>
     <n v="305"/>
     <x v="0"/>
-    <x v="55"/>
+    <s v="根津苑"/>
     <s v="AiCity-939-根津苑.jpg"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=118143&amp;v=720"/>
@@ -11426,7 +11280,7 @@
     <s v="(107)桃市都建執照字第會龜00667號等1個"/>
     <n v="0.32"/>
     <s v="4棟，225戶住家，3戶店面"/>
-    <x v="49"/>
+    <n v="225"/>
     <n v="3"/>
     <m/>
     <n v="0.50539999999999996"/>
@@ -11466,7 +11320,7 @@
     <n v="520"/>
     <n v="306"/>
     <x v="0"/>
-    <x v="56"/>
+    <s v="華悅城"/>
     <s v="AiCity-939-華悅城.jpg"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=120741"/>
@@ -11514,7 +11368,7 @@
     <s v="(108)桃市都建執照字第會龜00410-01號"/>
     <n v="0.34"/>
     <s v="3棟，776戶住家，8戶店面"/>
-    <x v="50"/>
+    <n v="776"/>
     <n v="8"/>
     <m/>
     <n v="0.44359999999999999"/>
@@ -11554,7 +11408,7 @@
     <n v="524"/>
     <n v="310"/>
     <x v="0"/>
-    <x v="57"/>
+    <s v="水悅青青"/>
     <s v="AiCity-939-水悅青青.webp"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=125625"/>
@@ -11602,7 +11456,7 @@
     <s v="108桃市都建執照字第00167號"/>
     <n v="0.32"/>
     <s v="1幢，3棟，204戶住家，7戶店面"/>
-    <x v="51"/>
+    <n v="204"/>
     <n v="7"/>
     <m/>
     <n v="0.55610000000000004"/>
@@ -11642,7 +11496,7 @@
     <n v="526"/>
     <n v="312"/>
     <x v="0"/>
-    <x v="58"/>
+    <s v="大亮時代A7"/>
     <s v="AiCity-939-大亮時代A7.jpeg"/>
     <s v="https://www.instagram.com/p/CzYEmW-RG3O/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=125949"/>
@@ -11690,7 +11544,7 @@
     <s v="110桃市都建執照字第00147號"/>
     <n v="0.33900000000000002"/>
     <s v="1幢，1棟，87戶一般事務所，3戶店面，45戶住家"/>
-    <x v="52"/>
+    <n v="87"/>
     <n v="3"/>
     <m/>
     <n v="0.50270000000000004"/>
@@ -11730,7 +11584,7 @@
     <n v="527"/>
     <n v="313"/>
     <x v="0"/>
-    <x v="59"/>
+    <s v="大亮 泊"/>
     <s v="AiCity-939-大亮泊.webp"/>
     <s v="https://img1.591.com.tw/house/2021/12/02/163841444220500009.jpg!900x.water3.jpg"/>
     <s v="https://market.591.com.tw/5855860"/>
@@ -11778,7 +11632,7 @@
     <m/>
     <n v="0.33900000000000002"/>
     <s v="_x000a_1幢，4棟，568戶住家，17戶店面"/>
-    <x v="53"/>
+    <n v="568"/>
     <n v="17"/>
     <m/>
     <n v="0.63100000000000001"/>
@@ -11818,7 +11672,7 @@
     <n v="528"/>
     <n v="318"/>
     <x v="0"/>
-    <x v="60"/>
+    <s v="大亮波波"/>
     <s v="AiCity-939-大亮波波.webp"/>
     <s v="https://img1.591.com.tw/market/2023/07/05/GCN-0mc1qBIKwTHPSf97n.jpg!900x.water3.jpg"/>
     <s v="https://market.591.com.tw/5923105"/>
@@ -11866,7 +11720,7 @@
     <m/>
     <n v="0.33900000000000002"/>
     <m/>
-    <x v="54"/>
+    <n v="192"/>
     <m/>
     <m/>
     <n v="0.50829999999999997"/>
@@ -11906,7 +11760,7 @@
     <n v="529"/>
     <n v="319"/>
     <x v="0"/>
-    <x v="61"/>
+    <s v="金捷市"/>
     <s v="AiCity-939-金捷市.jpg"/>
     <s v="https://www.instagram.com/p/CxlJc6XvCuR/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=116107&amp;v=720"/>
@@ -11954,7 +11808,7 @@
     <s v="(106)桃市都建執照字第會龜00822號等1個"/>
     <n v="0.31900000000000001"/>
     <s v="4幢，754戶住家，23戶店面, 1商場"/>
-    <x v="55"/>
+    <n v="754"/>
     <n v="23"/>
     <m/>
     <n v="0.50739999999999996"/>
@@ -11994,7 +11848,7 @@
     <n v="530"/>
     <n v="404"/>
     <x v="4"/>
-    <x v="62"/>
+    <s v="詠勝市中欣"/>
     <s v="AiCity-939-詠勝市中欣.jpg"/>
     <s v="https://www.instagram.com/p/Co4WKG5PPtA/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=120096&amp;v=720"/>
@@ -12042,7 +11896,7 @@
     <s v="(106)桃市都建執照字第會龜00159-01號等1個"/>
     <n v="0.33"/>
     <s v="1棟，257戶住家，7戶店面，32戶一般事務所"/>
-    <x v="56"/>
+    <n v="257"/>
     <n v="7"/>
     <m/>
     <n v="0.53259999999999996"/>
@@ -12082,7 +11936,7 @@
     <n v="531"/>
     <n v="405"/>
     <x v="4"/>
-    <x v="63"/>
+    <s v="新A7"/>
     <s v="AiCity-939-新A7.jpg"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=122651"/>
@@ -12130,7 +11984,7 @@
     <s v="108桃市都建執照字第00568-02號"/>
     <n v="0.32"/>
     <s v="4幢，7棟，371戶住家，3戶店面"/>
-    <x v="57"/>
+    <n v="371"/>
     <n v="3"/>
     <m/>
     <n v="0.46450000000000002"/>
@@ -12170,7 +12024,7 @@
     <n v="532"/>
     <n v="406"/>
     <x v="4"/>
-    <x v="64"/>
+    <s v="富御捷境"/>
     <s v="AiCity-939-富御捷境.jpg"/>
     <s v="https://www.instagram.com/p/Cz0dF49RNZu/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=116475"/>
@@ -12218,7 +12072,7 @@
     <s v="(106)桃市都建執照字第會龜01237 號等1個"/>
     <n v="0.315"/>
     <s v="5棟，337戶住家，2戶店面"/>
-    <x v="58"/>
+    <n v="337"/>
     <n v="2"/>
     <m/>
     <n v="0.47499999999999998"/>
@@ -12258,7 +12112,7 @@
     <n v="533"/>
     <n v="408"/>
     <x v="4"/>
-    <x v="65"/>
+    <s v="頤昌豐岳"/>
     <s v="AiCity-939-頤昌豐岳.jpg"/>
     <s v="https://www.instagram.com/p/CxlKb2aPrdo/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=122055"/>
@@ -12306,7 +12160,7 @@
     <s v="108桃市都建執照字第01005-01號"/>
     <n v="0.32"/>
     <s v="2棟，154戶住家，9戶店面"/>
-    <x v="59"/>
+    <n v="154"/>
     <n v="9"/>
     <m/>
     <n v="0.4622"/>
@@ -12346,7 +12200,7 @@
     <n v="534"/>
     <n v="409"/>
     <x v="4"/>
-    <x v="66"/>
+    <s v="新未來2"/>
     <s v="AiCity-939-新未來2.jpg"/>
     <s v="https://www.instagram.com/p/Co3MyHIvYzG/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/info?hid=118904"/>
@@ -12394,7 +12248,7 @@
     <s v="(107)桃市字第會龜00687號"/>
     <n v="0.33"/>
     <s v="2棟，376戶住家，9戶店面"/>
-    <x v="60"/>
+    <n v="376"/>
     <n v="9"/>
     <m/>
     <n v="0.36220000000000002"/>
@@ -12434,7 +12288,7 @@
     <n v="535"/>
     <n v="410"/>
     <x v="4"/>
-    <x v="67"/>
+    <s v="遠雄新未來3"/>
     <s v="AiCity-939-新未來3.jpg"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/info?hid=122831"/>
@@ -12482,7 +12336,7 @@
     <s v="109桃市都建執照字第00076號"/>
     <n v="0.3327"/>
     <s v="2幢，3棟，582戶住家，16戶店面"/>
-    <x v="61"/>
+    <n v="582"/>
     <n v="16"/>
     <m/>
     <n v="0.38300000000000001"/>
@@ -12522,7 +12376,7 @@
     <n v="536"/>
     <n v="411"/>
     <x v="4"/>
-    <x v="68"/>
+    <s v="和洲金剛"/>
     <s v="AiCity-939-和洲金剛.jpg"/>
     <m/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=122486&amp;v=720"/>
@@ -12570,7 +12424,7 @@
     <s v="108桃市都建執照字第00611號等1個"/>
     <n v="0.32"/>
     <s v="3幢，3棟，210戶住家，11戶店面"/>
-    <x v="37"/>
+    <n v="210"/>
     <n v="11"/>
     <m/>
     <n v="0.45540000000000003"/>
@@ -12610,7 +12464,7 @@
     <n v="537"/>
     <n v="412"/>
     <x v="4"/>
-    <x v="69"/>
+    <s v="君邑丘比特"/>
     <s v="AiCity-939-邱比特.jpg"/>
     <s v="https://www.instagram.com/p/Cwl6CYKR-3C/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=121781&amp;"/>
@@ -12658,7 +12512,7 @@
     <s v="108桃市都建執照字第00488-01號等1個"/>
     <n v="0.33129999999999998"/>
     <s v="1幢，4棟，173戶住家，5戶店面"/>
-    <x v="21"/>
+    <n v="173"/>
     <n v="5"/>
     <m/>
     <n v="0.46150000000000002"/>
@@ -12698,7 +12552,7 @@
     <n v="538"/>
     <n v="414"/>
     <x v="4"/>
-    <x v="70"/>
+    <s v="合謙學"/>
     <s v="AiCity-939-合謙學.webp"/>
     <s v="https://www.instagram.com/p/Cz0c9xjxYI0/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=126450"/>
@@ -12746,7 +12600,7 @@
     <m/>
     <n v="0.32500000000000001"/>
     <s v="1幢，2棟，106戶住家"/>
-    <x v="8"/>
+    <n v="106"/>
     <n v="0"/>
     <m/>
     <n v="0.45660000000000001"/>
@@ -12786,7 +12640,7 @@
     <n v="540"/>
     <n v="416"/>
     <x v="4"/>
-    <x v="71"/>
+    <s v="頤昌澄岳"/>
     <s v="AiCity-939-頤昌澄岳.jpg"/>
     <s v="https://www.instagram.com/p/C21bJIMRVyU/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA=="/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=128885&amp;v=720"/>
@@ -12834,7 +12688,7 @@
     <s v="110桃市都建執照字第00808號"/>
     <n v="0.33"/>
     <s v="1幢，2棟，140戶住家，8戶店面"/>
-    <x v="62"/>
+    <n v="140"/>
     <n v="8"/>
     <m/>
     <n v="0.38429999999999997"/>
@@ -12874,7 +12728,7 @@
     <n v="541"/>
     <n v="417"/>
     <x v="4"/>
-    <x v="72"/>
+    <s v="玄泰T1"/>
     <s v="AiCity-939-玄泰T1.webp"/>
     <s v="https://img1.591.com.tw/house/2021/12/27/164056887917960305.jpg!900x.water3.jpg"/>
     <s v="https://newhouse.591.com.tw/home/housing/detail?hid=128089"/>
@@ -12922,7 +12776,7 @@
     <s v="110桃市都建執照字第00311-01號"/>
     <n v="0.33"/>
     <s v="1幢，4棟，264戶住家，7戶店面，294戶事務所，30戶一般"/>
-    <x v="0"/>
+    <n v="264"/>
     <n v="7"/>
     <m/>
     <n v="0.59189999999999998"/>
@@ -12962,55 +12816,55 @@
     <n v="301"/>
     <m/>
     <x v="5"/>
-    <x v="73"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="63"/>
+    <s v="平均單價"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -13050,55 +12904,55 @@
     <n v="302"/>
     <m/>
     <x v="5"/>
-    <x v="74"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="63"/>
+    <s v="平均總價"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -13138,55 +12992,55 @@
     <n v="303"/>
     <m/>
     <x v="5"/>
-    <x v="75"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="63"/>
+    <s v="成交量"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -13226,143 +13080,55 @@
     <m/>
     <m/>
     <x v="5"/>
-    <x v="76"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="63"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="5"/>
-    <x v="76"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="63"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -13402,7 +13168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0445F0E-A146-2343-83FE-5B857A68A469}" name="樞紐分析表2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0445F0E-A146-2343-83FE-5B857A68A469}" name="樞紐分析表2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A28:C33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="86">
     <pivotField showAll="0"/>
@@ -13549,8 +13315,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E279DAAD-7052-0349-BCB1-ADC981888DA2}" name="樞紐分析表1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E279DAAD-7052-0349-BCB1-ADC981888DA2}" name="樞紐分析表1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="86">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -13562,88 +13328,6 @@
         <item x="4"/>
         <item x="1"/>
         <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="78">
-        <item x="59"/>
-        <item x="60"/>
-        <item x="58"/>
-        <item x="25"/>
-        <item x="35"/>
-        <item x="40"/>
-        <item x="29"/>
-        <item x="43"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="57"/>
-        <item x="24"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="72"/>
-        <item x="48"/>
-        <item x="23"/>
-        <item x="28"/>
-        <item x="15"/>
-        <item x="1"/>
-        <item x="70"/>
-        <item x="12"/>
-        <item x="75"/>
-        <item x="36"/>
-        <item x="51"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="69"/>
-        <item x="32"/>
-        <item x="68"/>
-        <item x="19"/>
-        <item x="9"/>
-        <item x="39"/>
-        <item x="49"/>
-        <item x="21"/>
-        <item x="52"/>
-        <item x="61"/>
-        <item x="47"/>
-        <item x="11"/>
-        <item x="55"/>
-        <item x="27"/>
-        <item x="17"/>
-        <item x="5"/>
-        <item x="38"/>
-        <item x="0"/>
-        <item x="45"/>
-        <item x="31"/>
-        <item x="64"/>
-        <item x="34"/>
-        <item x="37"/>
-        <item x="56"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="4"/>
-        <item x="66"/>
-        <item x="54"/>
-        <item x="53"/>
-        <item x="41"/>
-        <item x="10"/>
-        <item x="67"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="33"/>
-        <item x="42"/>
-        <item x="71"/>
-        <item x="50"/>
-        <item x="65"/>
-        <item x="44"/>
-        <item x="16"/>
-        <item x="26"/>
-        <item x="30"/>
-        <item x="18"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="46"/>
-        <item x="8"/>
-        <item x="76"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -13694,75 +13378,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="65">
-        <item x="9"/>
-        <item x="52"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="17"/>
-        <item x="39"/>
-        <item x="45"/>
-        <item x="33"/>
-        <item x="40"/>
-        <item x="62"/>
-        <item x="35"/>
-        <item x="18"/>
-        <item x="59"/>
-        <item x="6"/>
-        <item x="21"/>
-        <item x="25"/>
-        <item x="31"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="54"/>
-        <item x="26"/>
-        <item x="24"/>
-        <item x="43"/>
-        <item x="34"/>
-        <item x="51"/>
-        <item x="37"/>
-        <item x="16"/>
-        <item x="49"/>
-        <item x="47"/>
-        <item x="56"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="2"/>
-        <item x="44"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="58"/>
-        <item x="57"/>
-        <item x="60"/>
-        <item x="41"/>
-        <item x="48"/>
-        <item x="42"/>
-        <item x="3"/>
-        <item x="36"/>
-        <item x="12"/>
-        <item x="29"/>
-        <item x="38"/>
-        <item x="53"/>
-        <item x="61"/>
-        <item x="55"/>
-        <item x="30"/>
-        <item x="50"/>
-        <item x="4"/>
-        <item x="27"/>
-        <item x="13"/>
-        <item x="32"/>
-        <item x="28"/>
-        <item x="46"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="63"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -13778,7 +13395,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="6">
         <item x="0"/>
         <item x="1"/>
@@ -13807,46 +13424,24 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
+  <rowFields count="1">
     <field x="2"/>
-    <field x="67"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="6">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
     <i>
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i>
       <x v="3"/>
     </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
     <i>
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -14179,12 +13774,12 @@
   <dimension ref="A3:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="59" width="5" bestFit="1" customWidth="1"/>
     <col min="60" max="65" width="6" bestFit="1" customWidth="1"/>
@@ -14205,142 +13800,65 @@
       <c r="A4" s="41" t="s">
         <v>1497</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="42">
         <v>3471</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="42">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="42" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B5" s="43">
-        <v>2456</v>
-      </c>
-      <c r="C5" s="43">
-        <v>107</v>
+      <c r="A5" s="41" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B5" s="42">
+        <v>2925</v>
+      </c>
+      <c r="C5" s="42">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="42" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B6" s="43">
-        <v>1015</v>
-      </c>
-      <c r="C6" s="43">
-        <v>29</v>
+      <c r="A6" s="41" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B6" s="42">
+        <v>9084</v>
+      </c>
+      <c r="C6" s="42">
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="41" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B7" s="43">
-        <v>2925</v>
-      </c>
-      <c r="C7" s="43">
-        <v>45</v>
+        <v>1500</v>
+      </c>
+      <c r="B7" s="42">
+        <v>4975</v>
+      </c>
+      <c r="C7" s="42">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="42" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B8" s="43">
-        <v>2925</v>
-      </c>
-      <c r="C8" s="43">
-        <v>45</v>
+      <c r="A8" s="41" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B8" s="42">
+        <v>5935</v>
+      </c>
+      <c r="C8" s="42">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="41" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B9" s="43">
-        <v>9084</v>
-      </c>
-      <c r="C9" s="43">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="42" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B10" s="43">
-        <v>1159</v>
-      </c>
-      <c r="C10" s="43">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="42" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B11" s="43">
-        <v>7925</v>
-      </c>
-      <c r="C11" s="43">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="41" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B12" s="43">
-        <v>4975</v>
-      </c>
-      <c r="C12" s="43">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="42" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B13" s="43">
-        <v>4975</v>
-      </c>
-      <c r="C13" s="43">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="41" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B14" s="43">
-        <v>5935</v>
-      </c>
-      <c r="C14" s="43">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="42" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B15" s="43">
-        <v>5935</v>
-      </c>
-      <c r="C15" s="43">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="41" t="s">
         <v>1502</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B9" s="42">
         <v>26390</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C9" s="42">
         <v>578</v>
       </c>
     </row>
@@ -14359,10 +13877,10 @@
       <c r="A29" s="41" t="s">
         <v>1505</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="42">
         <v>1159</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="42">
         <v>12</v>
       </c>
     </row>
@@ -14370,10 +13888,10 @@
       <c r="A30" s="41" t="s">
         <v>1506</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="42">
         <v>5935</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="42">
         <v>31</v>
       </c>
     </row>
@@ -14381,32 +13899,32 @@
       <c r="A31" s="41" t="s">
         <v>1503</v>
       </c>
-      <c r="B31" s="43">
-        <v>2456</v>
-      </c>
-      <c r="C31" s="43">
-        <v>107</v>
+      <c r="B31" s="42">
+        <v>2652</v>
+      </c>
+      <c r="C31" s="42">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="41" t="s">
         <v>1504</v>
       </c>
-      <c r="B32" s="43">
-        <v>16840</v>
-      </c>
-      <c r="C32" s="43">
-        <v>428</v>
+      <c r="B32" s="42">
+        <v>16644</v>
+      </c>
+      <c r="C32" s="42">
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="41" t="s">
         <v>1502</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="42">
         <v>26390</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="42">
         <v>578</v>
       </c>
     </row>
@@ -14421,10 +13939,10 @@
   <dimension ref="A1:CH77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="BH36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="BP46" sqref="BP46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -14810,11 +14328,11 @@
         <v>32</v>
       </c>
       <c r="R2" s="15">
-        <f>(P2+Q2)/2</f>
+        <f t="shared" ref="R2:R10" si="0">(P2+Q2)/2</f>
         <v>30</v>
       </c>
       <c r="S2" s="15">
-        <f>Q2-R2</f>
+        <f t="shared" ref="S2:S10" si="1">Q2-R2</f>
         <v>2</v>
       </c>
       <c r="T2" s="9" t="s">
@@ -14827,11 +14345,11 @@
         <v>36</v>
       </c>
       <c r="W2" s="15">
-        <f>V2-U2</f>
+        <f t="shared" ref="W2:W10" si="2">V2-U2</f>
         <v>2</v>
       </c>
       <c r="X2" s="15">
-        <f>(U2+V2)/2</f>
+        <f t="shared" ref="X2:X18" si="3">(U2+V2)/2</f>
         <v>35</v>
       </c>
       <c r="AC2" s="9" t="s">
@@ -14991,11 +14509,11 @@
         <v>26</v>
       </c>
       <c r="R3" s="15">
-        <f>(P3+Q3)/2</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="S3" s="15">
-        <f>Q3-R3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T3" s="9" t="s">
@@ -15008,11 +14526,11 @@
         <v>26</v>
       </c>
       <c r="W3" s="15">
-        <f>V3-U3</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X3" s="15">
-        <f>(U3+V3)/2</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Y3" s="15" t="s">
@@ -15181,11 +14699,11 @@
         <v>31</v>
       </c>
       <c r="R4" s="15">
-        <f>(P4+Q4)/2</f>
+        <f t="shared" si="0"/>
         <v>30.5</v>
       </c>
       <c r="S4" s="15">
-        <f>Q4-R4</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="T4" s="9" t="s">
@@ -15198,11 +14716,11 @@
         <v>28</v>
       </c>
       <c r="W4" s="15">
-        <f>V4-U4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X4" s="15">
-        <f>(U4+V4)/2</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="Z4" s="9" t="s">
@@ -15378,11 +14896,11 @@
         <v>27</v>
       </c>
       <c r="R5" s="15">
-        <f>(P5+Q5)/2</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="S5" s="15">
-        <f>Q5-R5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="9" t="s">
@@ -15395,11 +14913,11 @@
         <v>34</v>
       </c>
       <c r="W5" s="15">
-        <f>V5-U5</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X5" s="15">
-        <f>(U5+V5)/2</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="AC5" s="9" t="s">
@@ -15582,11 +15100,11 @@
         <v>38</v>
       </c>
       <c r="R6" s="15">
-        <f>(P6+Q6)/2</f>
+        <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
       <c r="S6" s="15">
-        <f>Q6-R6</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="T6" s="9" t="s">
@@ -15599,11 +15117,11 @@
         <v>38</v>
       </c>
       <c r="W6" s="15">
-        <f>V6-U6</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="X6" s="15">
-        <f>(U6+V6)/2</f>
+        <f t="shared" si="3"/>
         <v>35.5</v>
       </c>
       <c r="Y6" s="15" t="s">
@@ -15767,11 +15285,11 @@
         <v>43</v>
       </c>
       <c r="R7" s="15">
-        <f>(P7+Q7)/2</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="S7" s="15">
-        <f>Q7-R7</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T7" s="9" t="s">
@@ -15784,11 +15302,11 @@
         <v>50</v>
       </c>
       <c r="W7" s="15">
-        <f>V7-U7</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="X7" s="15">
-        <f>(U7+V7)/2</f>
+        <f t="shared" si="3"/>
         <v>47.5</v>
       </c>
       <c r="AC7" s="9" t="s">
@@ -15959,11 +15477,11 @@
         <v>30</v>
       </c>
       <c r="R8" s="15">
-        <f>(P8+Q8)/2</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="S8" s="15">
-        <f>Q8-R8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
@@ -15976,11 +15494,11 @@
         <v>30</v>
       </c>
       <c r="W8" s="15">
-        <f>V8-U8</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="X8" s="15">
-        <f>(U8+V8)/2</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="Y8" s="15" t="s">
@@ -16140,11 +15658,11 @@
         <v>30</v>
       </c>
       <c r="R9" s="15">
-        <f>(P9+Q9)/2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="S9" s="15">
-        <f>Q9-R9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T9" s="9" t="s">
@@ -16157,11 +15675,11 @@
         <v>30</v>
       </c>
       <c r="W9" s="15">
-        <f>V9-U9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <f>(U9+V9)/2</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="Y9" s="15" t="s">
@@ -16328,11 +15846,11 @@
         <v>32</v>
       </c>
       <c r="R10" s="15">
-        <f>(P10+Q10)/2</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="S10" s="15">
-        <f>Q10-R10</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="T10" s="9" t="s">
@@ -16345,11 +15863,11 @@
         <v>32</v>
       </c>
       <c r="W10" s="15">
-        <f>V10-U10</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="X10" s="15">
-        <f>(U10+V10)/2</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="Y10" s="15" t="s">
@@ -16518,7 +16036,7 @@
         <v>801</v>
       </c>
       <c r="X11" s="15">
-        <f>(U11+V11)/2</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG11" s="9" t="s">
@@ -16662,7 +16180,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="15">
-        <f>(U12+V12)/2</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="Y12" s="15" t="s">
@@ -16794,7 +16312,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="15">
-        <f>(U13+V13)/2</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="Y13" s="15" t="s">
@@ -16921,7 +16439,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="15">
-        <f>(U14+V14)/2</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="Y14" s="15" t="s">
@@ -17050,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="15">
-        <f>(U15+V15)/2</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="Y15" s="15" t="s">
@@ -17167,7 +16685,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="15">
-        <f>(U16+V16)/2</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="Y16" s="15" t="s">
@@ -17391,7 +16909,7 @@
         <v>3</v>
       </c>
       <c r="X17" s="15">
-        <f>(U17+V17)/2</f>
+        <f t="shared" si="3"/>
         <v>39.5</v>
       </c>
       <c r="Y17" s="15" t="s">
@@ -17598,7 +17116,7 @@
         <v>5</v>
       </c>
       <c r="X18" s="15">
-        <f>(U18+V18)/2</f>
+        <f t="shared" si="3"/>
         <v>42.5</v>
       </c>
       <c r="Y18" s="15" t="s">
@@ -17990,11 +17508,11 @@
         <v>53</v>
       </c>
       <c r="W20" s="15">
-        <f>V20-U20</f>
+        <f t="shared" ref="W20:W27" si="4">V20-U20</f>
         <v>10</v>
       </c>
       <c r="X20" s="15">
-        <f>(U20+V20)/2</f>
+        <f t="shared" ref="X20:X27" si="5">(U20+V20)/2</f>
         <v>48</v>
       </c>
       <c r="Y20" s="15" t="s">
@@ -18171,11 +17689,11 @@
         <v>29</v>
       </c>
       <c r="R21" s="15">
-        <f>(P21+Q21)/2</f>
+        <f t="shared" ref="R21:R26" si="6">(P21+Q21)/2</f>
         <v>28.5</v>
       </c>
       <c r="S21" s="15">
-        <f>Q21-R21</f>
+        <f t="shared" ref="S21:S26" si="7">Q21-R21</f>
         <v>0.5</v>
       </c>
       <c r="T21" s="9" t="s">
@@ -18188,11 +17706,11 @@
         <v>36</v>
       </c>
       <c r="W21" s="15">
-        <f>V21-U21</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="X21" s="15">
-        <f>(U21+V21)/2</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -18378,11 +17896,11 @@
         <v>26</v>
       </c>
       <c r="R22" s="15">
-        <f>(P22+Q22)/2</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="S22" s="15">
-        <f>Q22-R22</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T22" s="9" t="s">
@@ -18395,11 +17913,11 @@
         <v>26</v>
       </c>
       <c r="W22" s="15">
-        <f>V22-U22</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X22" s="15">
-        <f>(U22+V22)/2</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="Y22" s="15" t="s">
@@ -18574,11 +18092,11 @@
         <v>25.5</v>
       </c>
       <c r="R23" s="15">
-        <f>(P23+Q23)/2</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="S23" s="15">
-        <f>Q23-R23</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="T23" s="9" t="s">
@@ -18591,11 +18109,11 @@
         <v>25.5</v>
       </c>
       <c r="W23" s="15">
-        <f>V23-U23</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X23" s="15">
-        <f>(U23+V23)/2</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="Y23" s="15" t="s">
@@ -18774,11 +18292,11 @@
         <v>26</v>
       </c>
       <c r="R24" s="15">
-        <f>(P24+Q24)/2</f>
+        <f t="shared" si="6"/>
         <v>25.5</v>
       </c>
       <c r="S24" s="15">
-        <f>Q24-R24</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="T24" s="9" t="s">
@@ -18791,11 +18309,11 @@
         <v>26</v>
       </c>
       <c r="W24" s="15">
-        <f>V24-U24</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X24" s="15">
-        <f>(U24+V24)/2</f>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="Y24" s="15" t="s">
@@ -18969,11 +18487,11 @@
         <v>28</v>
       </c>
       <c r="R25" s="15">
-        <f>(P25+Q25)/2</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="S25" s="15">
-        <f>Q25-R25</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T25" s="9" t="s">
@@ -18986,11 +18504,11 @@
         <v>28</v>
       </c>
       <c r="W25" s="15">
-        <f>V25-U25</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="X25" s="15">
-        <f>(U25+V25)/2</f>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="Y25" s="15" t="s">
@@ -19161,11 +18679,11 @@
         <v>26</v>
       </c>
       <c r="R26" s="15">
-        <f>(P26+Q26)/2</f>
+        <f t="shared" si="6"/>
         <v>25.5</v>
       </c>
       <c r="S26" s="15">
-        <f>Q26-R26</f>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="T26" s="9" t="s">
@@ -19178,11 +18696,11 @@
         <v>29</v>
       </c>
       <c r="W26" s="15">
-        <f>V26-U26</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="X26" s="15">
-        <f>(U26+V26)/2</f>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="Z26" s="9" t="s">
@@ -19362,11 +18880,11 @@
         <v>44</v>
       </c>
       <c r="W27" s="15">
-        <f>V27-U27</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="X27" s="15">
-        <f>(U27+V27)/2</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="Y27" s="15" t="s">
@@ -19493,7 +19011,7 @@
         <v>1110</v>
       </c>
       <c r="CE27" s="30">
-        <f>AZ27+BA27</f>
+        <f t="shared" ref="CE27:CE44" si="8">AZ27+BA27</f>
         <v>190</v>
       </c>
       <c r="CF27" s="9">
@@ -19694,7 +19212,7 @@
         <v>1420</v>
       </c>
       <c r="CE28" s="30">
-        <f>AZ28+BA28</f>
+        <f t="shared" si="8"/>
         <v>199</v>
       </c>
       <c r="CF28" s="13">
@@ -19763,11 +19281,11 @@
         <v>49</v>
       </c>
       <c r="W29" s="15">
-        <f>V29-U29</f>
+        <f t="shared" ref="W29:W72" si="9">V29-U29</f>
         <v>5</v>
       </c>
       <c r="X29" s="15">
-        <f>(U29+V29)/2</f>
+        <f t="shared" ref="X29:X73" si="10">(U29+V29)/2</f>
         <v>46.5</v>
       </c>
       <c r="Y29" s="15" t="s">
@@ -19933,7 +19451,7 @@
         <v>1115</v>
       </c>
       <c r="CE29" s="30">
-        <f>AZ29+BA29</f>
+        <f t="shared" si="8"/>
         <v>832</v>
       </c>
       <c r="CF29" s="13"/>
@@ -20012,11 +19530,11 @@
         <v>46</v>
       </c>
       <c r="W30" s="15">
-        <f>V30-U30</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="X30" s="15">
-        <f>(U30+V30)/2</f>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="Y30" s="15" t="s">
@@ -20167,7 +19685,7 @@
         <v>1124</v>
       </c>
       <c r="CE30" s="30">
-        <f>AZ30+BA30</f>
+        <f t="shared" si="8"/>
         <v>1044</v>
       </c>
       <c r="CF30" s="13"/>
@@ -20246,11 +19764,11 @@
         <v>47</v>
       </c>
       <c r="W31" s="15">
-        <f>V31-U31</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="X31" s="15">
-        <f>(U31+V31)/2</f>
+        <f t="shared" si="10"/>
         <v>44.5</v>
       </c>
       <c r="Y31" s="15" t="s">
@@ -20404,7 +19922,7 @@
         <v>1123</v>
       </c>
       <c r="CE31" s="30">
-        <f>AZ31+BA31</f>
+        <f t="shared" si="8"/>
         <v>535</v>
       </c>
       <c r="CF31" s="22"/>
@@ -20485,11 +20003,11 @@
         <v>48</v>
       </c>
       <c r="W32" s="15">
-        <f>V32-U32</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X32" s="15">
-        <f>(U32+V32)/2</f>
+        <f t="shared" si="10"/>
         <v>46.5</v>
       </c>
       <c r="Y32" s="15" t="s">
@@ -20655,7 +20173,7 @@
         <v>1122</v>
       </c>
       <c r="CE32" s="30">
-        <f>AZ32+BA32</f>
+        <f t="shared" si="8"/>
         <v>802</v>
       </c>
       <c r="CF32" s="13">
@@ -20721,11 +20239,11 @@
         <v>42</v>
       </c>
       <c r="W33" s="15">
-        <f>V33-U33</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="X33" s="15">
-        <f>(U33+V33)/2</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="Y33" s="15" t="s">
@@ -20864,7 +20382,7 @@
         <v>1120</v>
       </c>
       <c r="CE33" s="30">
-        <f>AZ33+BA33</f>
+        <f t="shared" si="8"/>
         <v>119</v>
       </c>
       <c r="CF33" s="13">
@@ -20930,11 +20448,11 @@
         <v>50.8</v>
       </c>
       <c r="W34" s="15">
-        <f>V34-U34</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="X34" s="15">
-        <f>(U34+V34)/2</f>
+        <f t="shared" si="10"/>
         <v>44.3</v>
       </c>
       <c r="Y34" s="15" t="s">
@@ -21073,7 +20591,7 @@
         <v>1127</v>
       </c>
       <c r="CE34" s="30">
-        <f>AZ34+BA34</f>
+        <f t="shared" si="8"/>
         <v>194</v>
       </c>
       <c r="CF34" s="13">
@@ -21139,11 +20657,11 @@
         <v>52</v>
       </c>
       <c r="W35" s="15">
-        <f>V35-U35</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="X35" s="15">
-        <f>(U35+V35)/2</f>
+        <f t="shared" si="10"/>
         <v>48.5</v>
       </c>
       <c r="Y35" s="15" t="s">
@@ -21288,7 +20806,7 @@
         <v>1129</v>
       </c>
       <c r="CE35" s="30">
-        <f>AZ35+BA35</f>
+        <f t="shared" si="8"/>
         <v>1049</v>
       </c>
       <c r="CF35" s="13">
@@ -21354,11 +20872,11 @@
         <v>46</v>
       </c>
       <c r="W36" s="15">
-        <f>V36-U36</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X36" s="15">
-        <f>(U36+V36)/2</f>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="Y36" s="15" t="s">
@@ -21506,7 +21024,7 @@
         <v>1131</v>
       </c>
       <c r="CE36" s="30">
-        <f>AZ36+BA36</f>
+        <f t="shared" si="8"/>
         <v>148</v>
       </c>
       <c r="CF36" s="13">
@@ -21572,11 +21090,11 @@
         <v>42</v>
       </c>
       <c r="W37" s="15">
-        <f>V37-U37</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X37" s="15">
-        <f>(U37+V37)/2</f>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="Y37" s="15" t="s">
@@ -21702,7 +21220,7 @@
       </c>
       <c r="CD37" s="30"/>
       <c r="CE37" s="30">
-        <f>AZ37+BA37</f>
+        <f t="shared" si="8"/>
         <v>207</v>
       </c>
       <c r="CF37" s="13">
@@ -21764,11 +21282,11 @@
         <v>42</v>
       </c>
       <c r="W38" s="15">
-        <f>V38-U38</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="X38" s="15">
-        <f>(U38+V38)/2</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="Y38" s="15" t="s">
@@ -21893,7 +21411,7 @@
         <v>1301</v>
       </c>
       <c r="CE38" s="30">
-        <f>AZ38+BA38</f>
+        <f t="shared" si="8"/>
         <v>103</v>
       </c>
       <c r="CF38" s="13">
@@ -21955,11 +21473,11 @@
         <v>40</v>
       </c>
       <c r="W39" s="15">
-        <f>V39-U39</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="X39" s="15">
-        <f>(U39+V39)/2</f>
+        <f t="shared" si="10"/>
         <v>37.5</v>
       </c>
       <c r="Y39" s="15" t="s">
@@ -22101,7 +21619,7 @@
         <v>1111</v>
       </c>
       <c r="CE39" s="30">
-        <f>AZ39+BA39</f>
+        <f t="shared" si="8"/>
         <v>145</v>
       </c>
       <c r="CF39" s="9">
@@ -22184,11 +21702,11 @@
         <v>56</v>
       </c>
       <c r="W40" s="15">
-        <f>V40-U40</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="X40" s="15">
-        <f>(U40+V40)/2</f>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="Y40" s="15" t="s">
@@ -22354,7 +21872,7 @@
         <v>1108</v>
       </c>
       <c r="CE40" s="30">
-        <f>AZ40+BA40</f>
+        <f t="shared" si="8"/>
         <v>491</v>
       </c>
       <c r="CF40" s="13">
@@ -22414,11 +21932,11 @@
         <v>37</v>
       </c>
       <c r="W41" s="15">
-        <f>V41-U41</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X41" s="15">
-        <f>(U41+V41)/2</f>
+        <f t="shared" si="10"/>
         <v>35.5</v>
       </c>
       <c r="Y41" s="15" t="s">
@@ -22551,7 +22069,7 @@
         <v>1119</v>
       </c>
       <c r="CE41" s="30">
-        <f>AZ41+BA41</f>
+        <f t="shared" si="8"/>
         <v>218</v>
       </c>
       <c r="CG41" s="30">
@@ -22611,11 +22129,11 @@
         <v>42</v>
       </c>
       <c r="W42" s="15">
-        <f>V42-U42</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X42" s="15">
-        <f>(U42+V42)/2</f>
+        <f t="shared" si="10"/>
         <v>40.5</v>
       </c>
       <c r="Y42" s="15" t="s">
@@ -22751,7 +22269,7 @@
         <v>1264</v>
       </c>
       <c r="CE42" s="30">
-        <f>AZ42+BA42</f>
+        <f t="shared" si="8"/>
         <v>546</v>
       </c>
       <c r="CG42" s="30"/>
@@ -22810,11 +22328,11 @@
         <v>46.3</v>
       </c>
       <c r="W43" s="15">
-        <f>V43-U43</f>
+        <f t="shared" si="9"/>
         <v>6.5</v>
       </c>
       <c r="X43" s="15">
-        <f>(U43+V43)/2</f>
+        <f t="shared" si="10"/>
         <v>43.05</v>
       </c>
       <c r="Y43" s="15" t="s">
@@ -22959,7 +22477,7 @@
         <v>1121</v>
       </c>
       <c r="CE43" s="30">
-        <f>AZ43+BA43</f>
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
       <c r="CF43" s="9">
@@ -23023,11 +22541,11 @@
         <v>52</v>
       </c>
       <c r="W44" s="15">
-        <f>V44-U44</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="X44" s="15">
-        <f>(U44+V44)/2</f>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="Y44" s="15" t="s">
@@ -23148,7 +22666,7 @@
         <v>1421</v>
       </c>
       <c r="CE44" s="30">
-        <f>AZ44+BA44</f>
+        <f t="shared" si="8"/>
         <v>142</v>
       </c>
       <c r="CF44" s="13">
@@ -23208,11 +22726,11 @@
         <v>55</v>
       </c>
       <c r="W45" s="15">
-        <f>V45-U45</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="X45" s="15">
-        <f>(U45+V45)/2</f>
+        <f t="shared" si="10"/>
         <v>52.5</v>
       </c>
       <c r="Y45" s="15" t="s">
@@ -23398,11 +22916,11 @@
         <v>26</v>
       </c>
       <c r="R46" s="15">
-        <f>(P46+Q46)/2</f>
+        <f t="shared" ref="R46:R60" si="11">(P46+Q46)/2</f>
         <v>26</v>
       </c>
       <c r="S46" s="15">
-        <f>Q46-R46</f>
+        <f t="shared" ref="S46:S60" si="12">Q46-R46</f>
         <v>0</v>
       </c>
       <c r="T46" s="9" t="s">
@@ -23415,11 +22933,11 @@
         <v>29</v>
       </c>
       <c r="W46" s="15">
-        <f>V46-U46</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X46" s="15">
-        <f>(U46+V46)/2</f>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="AC46" s="9" t="s">
@@ -23537,7 +23055,7 @@
         <v>78</v>
       </c>
       <c r="BP46" s="9" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="BQ46" s="9" t="s">
         <v>106</v>
@@ -23590,11 +23108,11 @@
         <v>32</v>
       </c>
       <c r="R47" s="15">
-        <f>(P47+Q47)/2</f>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="S47" s="15">
-        <f>Q47-R47</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T47" s="9" t="s">
@@ -23607,11 +23125,11 @@
         <v>42</v>
       </c>
       <c r="W47" s="15">
-        <f>V47-U47</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="X47" s="15">
-        <f>(U47+V47)/2</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="Z47" s="9" t="s">
@@ -23785,11 +23303,11 @@
         <v>28</v>
       </c>
       <c r="R48" s="15">
-        <f>(P48+Q48)/2</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="S48" s="15">
-        <f>Q48-R48</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T48" s="9" t="s">
@@ -23802,11 +23320,11 @@
         <v>28</v>
       </c>
       <c r="W48" s="15">
-        <f>V48-U48</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X48" s="15">
-        <f>(U48+V48)/2</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="Y48" s="15" t="s">
@@ -23974,11 +23492,11 @@
         <v>26</v>
       </c>
       <c r="R49" s="15">
-        <f>(P49+Q49)/2</f>
+        <f t="shared" si="11"/>
         <v>25.5</v>
       </c>
       <c r="S49" s="15">
-        <f>Q49-R49</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T49" s="9" t="s">
@@ -23991,11 +23509,11 @@
         <v>28</v>
       </c>
       <c r="W49" s="15">
-        <f>V49-U49</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X49" s="15">
-        <f>(U49+V49)/2</f>
+        <f t="shared" si="10"/>
         <v>27.5</v>
       </c>
       <c r="Z49" s="9" t="s">
@@ -24164,11 +23682,11 @@
         <v>29</v>
       </c>
       <c r="R50" s="15">
-        <f>(P50+Q50)/2</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S50" s="15">
-        <f>Q50-R50</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T50" s="9" t="s">
@@ -24181,11 +23699,11 @@
         <v>29</v>
       </c>
       <c r="W50" s="15">
-        <f>V50-U50</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X50" s="15">
-        <f>(U50+V50)/2</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="Y50" s="15" t="s">
@@ -24388,11 +23906,11 @@
         <v>33</v>
       </c>
       <c r="R51" s="15">
-        <f>(P51+Q51)/2</f>
+        <f t="shared" si="11"/>
         <v>30.5</v>
       </c>
       <c r="S51" s="15">
-        <f>Q51-R51</f>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="T51" s="9" t="s">
@@ -24405,11 +23923,11 @@
         <v>40</v>
       </c>
       <c r="W51" s="15">
-        <f>V51-U51</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="X51" s="15">
-        <f>(U51+V51)/2</f>
+        <f t="shared" si="10"/>
         <v>37.5</v>
       </c>
       <c r="AC51" s="9" t="s">
@@ -24573,11 +24091,11 @@
         <v>33</v>
       </c>
       <c r="R52" s="15">
-        <f>(P52+Q52)/2</f>
+        <f t="shared" si="11"/>
         <v>32.5</v>
       </c>
       <c r="S52" s="15">
-        <f>Q52-R52</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T52" s="9" t="s">
@@ -24590,11 +24108,11 @@
         <v>33</v>
       </c>
       <c r="W52" s="15">
-        <f>V52-U52</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X52" s="15">
-        <f>(U52+V52)/2</f>
+        <f t="shared" si="10"/>
         <v>32.5</v>
       </c>
       <c r="AC52" s="9" t="s">
@@ -24759,11 +24277,11 @@
         <v>28</v>
       </c>
       <c r="R53" s="15">
-        <f>(P53+Q53)/2</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="S53" s="15">
-        <f>Q53-R53</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T53" s="9" t="s">
@@ -24776,11 +24294,11 @@
         <v>41</v>
       </c>
       <c r="W53" s="15">
-        <f>V53-U53</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X53" s="15">
-        <f>(U53+V53)/2</f>
+        <f t="shared" si="10"/>
         <v>39.5</v>
       </c>
       <c r="Z53" s="9" t="s">
@@ -24951,11 +24469,11 @@
         <v>29</v>
       </c>
       <c r="R54" s="15">
-        <f>(P54+Q54)/2</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S54" s="15">
-        <f>Q54-R54</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T54" s="9" t="s">
@@ -24968,11 +24486,11 @@
         <v>29</v>
       </c>
       <c r="W54" s="15">
-        <f>V54-U54</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X54" s="15">
-        <f>(U54+V54)/2</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="Y54" s="15" t="s">
@@ -25159,11 +24677,11 @@
         <v>28</v>
       </c>
       <c r="R55" s="15">
-        <f>(P55+Q55)/2</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="S55" s="15">
-        <f>Q55-R55</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T55" s="9" t="s">
@@ -25176,11 +24694,11 @@
         <v>36</v>
       </c>
       <c r="W55" s="15">
-        <f>V55-U55</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X55" s="15">
-        <f>(U55+V55)/2</f>
+        <f t="shared" si="10"/>
         <v>34.5</v>
       </c>
       <c r="AC55" s="9" t="s">
@@ -25346,11 +24864,11 @@
         <v>29</v>
       </c>
       <c r="R56" s="15">
-        <f>(P56+Q56)/2</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S56" s="15">
-        <f>Q56-R56</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T56" s="9" t="s">
@@ -25363,11 +24881,11 @@
         <v>29</v>
       </c>
       <c r="W56" s="15">
-        <f>V56-U56</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X56" s="15">
-        <f>(U56+V56)/2</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="Y56" s="15" t="s">
@@ -25542,11 +25060,11 @@
         <v>26</v>
       </c>
       <c r="R57" s="15">
-        <f>(P57+Q57)/2</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="S57" s="15">
-        <f>Q57-R57</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T57" s="9" t="s">
@@ -25559,11 +25077,11 @@
         <v>28</v>
       </c>
       <c r="W57" s="15">
-        <f>V57-U57</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X57" s="15">
-        <f>(U57+V57)/2</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="Z57" s="9" t="s">
@@ -25737,11 +25255,11 @@
         <v>30</v>
       </c>
       <c r="R58" s="15">
-        <f>(P58+Q58)/2</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S58" s="15">
-        <f>Q58-R58</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="T58" s="9" t="s">
@@ -25754,11 +25272,11 @@
         <v>30</v>
       </c>
       <c r="W58" s="15">
-        <f>V58-U58</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="X58" s="15">
-        <f>(U58+V58)/2</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="AC58" s="9" t="s">
@@ -25927,11 +25445,11 @@
         <v>31</v>
       </c>
       <c r="R59" s="15">
-        <f>(P59+Q59)/2</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="S59" s="15">
-        <f>Q59-R59</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T59" s="9" t="s">
@@ -25944,11 +25462,11 @@
         <v>39</v>
       </c>
       <c r="W59" s="15">
-        <f>V59-U59</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="X59" s="15">
-        <f>(U59+V59)/2</f>
+        <f t="shared" si="10"/>
         <v>36.5</v>
       </c>
       <c r="AC59" s="9" t="s">
@@ -26117,11 +25635,11 @@
         <v>36</v>
       </c>
       <c r="R60" s="15">
-        <f>(P60+Q60)/2</f>
+        <f t="shared" si="11"/>
         <v>35.5</v>
       </c>
       <c r="S60" s="15">
-        <f>Q60-R60</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="T60" s="9" t="s">
@@ -26134,11 +25652,11 @@
         <v>36</v>
       </c>
       <c r="W60" s="15">
-        <f>V60-U60</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X60" s="15">
-        <f>(U60+V60)/2</f>
+        <f t="shared" si="10"/>
         <v>35.5</v>
       </c>
       <c r="AC60" s="9" t="s">
@@ -26320,11 +25838,11 @@
         <v>40</v>
       </c>
       <c r="W61" s="15">
-        <f>V61-U61</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X61" s="15">
-        <f>(U61+V61)/2</f>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="Y61" s="15" t="s">
@@ -26517,11 +26035,11 @@
         <v>42</v>
       </c>
       <c r="W62" s="15">
-        <f>V62-U62</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X62" s="15">
-        <f>(U62+V62)/2</f>
+        <f t="shared" si="10"/>
         <v>40.5</v>
       </c>
       <c r="AC62" s="27" t="s">
@@ -26677,11 +26195,11 @@
         <v>30.5</v>
       </c>
       <c r="R63" s="15">
-        <f>(P63+Q63)/2</f>
+        <f t="shared" ref="R63:R72" si="13">(P63+Q63)/2</f>
         <v>30.5</v>
       </c>
       <c r="S63" s="15">
-        <f>Q63-R63</f>
+        <f t="shared" ref="S63:S72" si="14">Q63-R63</f>
         <v>0</v>
       </c>
       <c r="T63" s="9" t="s">
@@ -26694,11 +26212,11 @@
         <v>30.5</v>
       </c>
       <c r="W63" s="15">
-        <f>V63-U63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X63" s="15">
-        <f>(U63+V63)/2</f>
+        <f t="shared" si="10"/>
         <v>30.5</v>
       </c>
       <c r="Z63" s="9" t="s">
@@ -26874,11 +26392,11 @@
         <v>32</v>
       </c>
       <c r="R64" s="15">
-        <f>(P64+Q64)/2</f>
+        <f t="shared" si="13"/>
         <v>29.5</v>
       </c>
       <c r="S64" s="15">
-        <f>Q64-R64</f>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="T64" s="9" t="s">
@@ -26891,11 +26409,11 @@
         <v>25</v>
       </c>
       <c r="W64" s="15">
-        <f>V64-U64</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="X64" s="15">
-        <f>(U64+V64)/2</f>
+        <f t="shared" si="10"/>
         <v>24.5</v>
       </c>
       <c r="Y64" s="15" t="s">
@@ -27084,11 +26602,11 @@
         <v>33</v>
       </c>
       <c r="R65" s="15">
-        <f>(P65+Q65)/2</f>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="S65" s="15">
-        <f>Q65-R65</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T65" s="9" t="s">
@@ -27101,11 +26619,11 @@
         <v>35</v>
       </c>
       <c r="W65" s="15">
-        <f>V65-U65</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="X65" s="15">
-        <f>(U65+V65)/2</f>
+        <f t="shared" si="10"/>
         <v>33.5</v>
       </c>
       <c r="AC65" s="9" t="s">
@@ -27276,11 +26794,11 @@
         <v>29</v>
       </c>
       <c r="R66" s="15">
-        <f>(P66+Q66)/2</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="S66" s="15">
-        <f>Q66-R66</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T66" s="9" t="s">
@@ -27293,11 +26811,11 @@
         <v>32</v>
       </c>
       <c r="W66" s="15">
-        <f>V66-U66</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X66" s="15">
-        <f>(U66+V66)/2</f>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="Z66" s="9" t="s">
@@ -27473,11 +26991,11 @@
         <v>30</v>
       </c>
       <c r="R67" s="15">
-        <f>(P67+Q67)/2</f>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="S67" s="15">
-        <f>Q67-R67</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T67" s="9" t="s">
@@ -27490,11 +27008,11 @@
         <v>30</v>
       </c>
       <c r="W67" s="15">
-        <f>V67-U67</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X67" s="15">
-        <f>(U67+V67)/2</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="AC67" s="9" t="s">
@@ -27667,11 +27185,11 @@
         <v>32</v>
       </c>
       <c r="R68" s="15">
-        <f>(P68+Q68)/2</f>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="S68" s="15">
-        <f>Q68-R68</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T68" s="9" t="s">
@@ -27684,11 +27202,11 @@
         <v>32</v>
       </c>
       <c r="W68" s="15">
-        <f>V68-U68</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X68" s="15">
-        <f>(U68+V68)/2</f>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="AC68" s="9" t="s">
@@ -27859,11 +27377,11 @@
         <v>38</v>
       </c>
       <c r="R69" s="15">
-        <f>(P69+Q69)/2</f>
+        <f t="shared" si="13"/>
         <v>35.5</v>
       </c>
       <c r="S69" s="15">
-        <f>Q69-R69</f>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="T69" s="9" t="s">
@@ -27876,11 +27394,11 @@
         <v>38</v>
       </c>
       <c r="W69" s="15">
-        <f>V69-U69</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="X69" s="15">
-        <f>(U69+V69)/2</f>
+        <f t="shared" si="10"/>
         <v>35.5</v>
       </c>
       <c r="AC69" s="9" t="s">
@@ -28066,11 +27584,11 @@
         <v>27</v>
       </c>
       <c r="R70" s="15">
-        <f>(P70+Q70)/2</f>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="S70" s="15">
-        <f>Q70-R70</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T70" s="9" t="s">
@@ -28083,11 +27601,11 @@
         <v>32</v>
       </c>
       <c r="W70" s="15">
-        <f>V70-U70</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="X70" s="15">
-        <f>(U70+V70)/2</f>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="AC70" s="9" t="s">
@@ -28254,11 +27772,11 @@
         <v>32</v>
       </c>
       <c r="R71" s="15">
-        <f>(P71+Q71)/2</f>
+        <f t="shared" si="13"/>
         <v>29.9</v>
       </c>
       <c r="S71" s="15">
-        <f>Q71-R71</f>
+        <f t="shared" si="14"/>
         <v>2.1000000000000014</v>
       </c>
       <c r="T71" s="9" t="s">
@@ -28271,11 +27789,11 @@
         <v>38.200000000000003</v>
       </c>
       <c r="W71" s="15">
-        <f>V71-U71</f>
+        <f t="shared" si="9"/>
         <v>8.4000000000000021</v>
       </c>
       <c r="X71" s="15">
-        <f>(U71+V71)/2</f>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="AC71" s="9" t="s">
@@ -28439,11 +27957,11 @@
         <v>35</v>
       </c>
       <c r="R72" s="15">
-        <f>(P72+Q72)/2</f>
+        <f t="shared" si="13"/>
         <v>33.5</v>
       </c>
       <c r="S72" s="15">
-        <f>Q72-R72</f>
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
       <c r="T72" s="9" t="s">
@@ -28456,11 +27974,11 @@
         <v>42</v>
       </c>
       <c r="W72" s="15">
-        <f>V72-U72</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="X72" s="15">
-        <f>(U72+V72)/2</f>
+        <f t="shared" si="10"/>
         <v>38.5</v>
       </c>
       <c r="AC72" s="9" t="s">
@@ -28619,7 +28137,7 @@
         <v>40</v>
       </c>
       <c r="X73" s="15">
-        <f>(U73+V73)/2</f>
+        <f t="shared" si="10"/>
         <v>39.5</v>
       </c>
       <c r="AC73" s="9" t="s">
